--- a/docs/00_Tools/09_02_DE_Integrated_Budgeting_Tool.xlsx
+++ b/docs/00_Tools/09_02_DE_Integrated_Budgeting_Tool.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\OneDrive - UT Cloud\Toolkit\Übersetzung\Tools\alle_übersetzt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katha\OneDrive - UT Cloud\Github\Lernraum-Toolkit.github.io\docs\00_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7620" windowHeight="4695" tabRatio="552" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7620" windowHeight="4695" tabRatio="552"/>
   </bookViews>
   <sheets>
     <sheet name="WILLKOMMEN" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
   <si>
     <t>Enterprise Hardware</t>
   </si>
@@ -825,6 +825,15 @@
   <si>
     <t>Zulagenfaktor</t>
   </si>
+  <si>
+    <t>Übersetzung: Katharina Zinke, Unversitätsbibliothek Tübingen</t>
+  </si>
+  <si>
+    <t>Lizenziert unter CC BY 4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original: www.learningspacetoolkit.org </t>
+  </si>
 </sst>
 </file>
 
@@ -837,7 +846,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1205,6 +1214,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -3208,7 +3224,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="410">
+  <cellXfs count="411">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4284,15 +4300,36 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4323,39 +4360,39 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4368,27 +4405,6 @@
     <xf numFmtId="0" fontId="22" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4401,6 +4417,7 @@
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1351">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -7251,10 +7268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:N12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7515,7 +7532,9 @@
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="410" t="s">
+        <v>135</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -7532,7 +7551,9 @@
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="410" t="s">
+        <v>133</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -7544,6 +7565,42 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="410" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -7575,7 +7632,7 @@
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -9714,20 +9771,20 @@
     </row>
     <row r="2" spans="1:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
-      <c r="B2" s="371" t="s">
+      <c r="B2" s="379" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
-      <c r="F2" s="372"/>
-      <c r="G2" s="372"/>
-      <c r="H2" s="372"/>
-      <c r="I2" s="372"/>
-      <c r="J2" s="372"/>
-      <c r="K2" s="372"/>
-      <c r="L2" s="372"/>
-      <c r="M2" s="372"/>
+      <c r="C2" s="380"/>
+      <c r="D2" s="380"/>
+      <c r="E2" s="380"/>
+      <c r="F2" s="380"/>
+      <c r="G2" s="380"/>
+      <c r="H2" s="380"/>
+      <c r="I2" s="380"/>
+      <c r="J2" s="380"/>
+      <c r="K2" s="380"/>
+      <c r="L2" s="380"/>
+      <c r="M2" s="380"/>
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
@@ -9867,7 +9924,7 @@
       <c r="F6" s="74"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
-      <c r="I6" s="374" t="s">
+      <c r="I6" s="381" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="352"/>
@@ -9876,27 +9933,27 @@
       <c r="M6" s="352"/>
       <c r="N6" s="353"/>
       <c r="O6" s="74"/>
-      <c r="P6" s="386" t="s">
+      <c r="P6" s="373" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="387"/>
-      <c r="R6" s="387"/>
-      <c r="S6" s="387"/>
-      <c r="T6" s="387"/>
-      <c r="U6" s="387"/>
-      <c r="V6" s="387"/>
+      <c r="Q6" s="374"/>
+      <c r="R6" s="374"/>
+      <c r="S6" s="374"/>
+      <c r="T6" s="374"/>
+      <c r="U6" s="374"/>
+      <c r="V6" s="374"/>
       <c r="W6" s="74"/>
-      <c r="X6" s="386" t="s">
+      <c r="X6" s="373" t="s">
         <v>56</v>
       </c>
-      <c r="Y6" s="387"/>
-      <c r="Z6" s="387"/>
-      <c r="AA6" s="387"/>
-      <c r="AB6" s="387"/>
-      <c r="AC6" s="387"/>
-      <c r="AD6" s="387"/>
+      <c r="Y6" s="374"/>
+      <c r="Z6" s="374"/>
+      <c r="AA6" s="374"/>
+      <c r="AB6" s="374"/>
+      <c r="AC6" s="374"/>
+      <c r="AD6" s="374"/>
       <c r="AE6" s="74"/>
-      <c r="AF6" s="384" t="s">
+      <c r="AF6" s="371" t="s">
         <v>35</v>
       </c>
       <c r="AG6" s="24"/>
@@ -9975,7 +10032,7 @@
         <v>59</v>
       </c>
       <c r="AE7" s="73"/>
-      <c r="AF7" s="385"/>
+      <c r="AF7" s="372"/>
       <c r="AG7" s="49"/>
     </row>
     <row r="8" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9987,7 +10044,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="92"/>
-      <c r="E8" s="377" t="str">
+      <c r="E8" s="384" t="str">
         <f>Dashboard!E14</f>
         <v>Räume</v>
       </c>
@@ -10091,7 +10148,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="92"/>
-      <c r="E9" s="378"/>
+      <c r="E9" s="385"/>
       <c r="F9" s="165" t="str">
         <f>Dashboard!F15</f>
         <v>Projektlab</v>
@@ -10190,7 +10247,7 @@
       <c r="B10" s="85"/>
       <c r="C10" s="344"/>
       <c r="D10" s="92"/>
-      <c r="E10" s="378"/>
+      <c r="E10" s="385"/>
       <c r="F10" s="165" t="str">
         <f>Dashboard!F16</f>
         <v>Visualisierungssaal</v>
@@ -10291,7 +10348,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="92"/>
-      <c r="E11" s="378"/>
+      <c r="E11" s="385"/>
       <c r="F11" s="165" t="str">
         <f>Dashboard!F17</f>
         <v>Gaming Zone</v>
@@ -10390,7 +10447,7 @@
       <c r="B12" s="86"/>
       <c r="C12" s="345"/>
       <c r="D12" s="92"/>
-      <c r="E12" s="378"/>
+      <c r="E12" s="385"/>
       <c r="F12" s="165" t="str">
         <f>Dashboard!F18</f>
         <v>Gruppenlernraum</v>
@@ -10489,7 +10546,7 @@
       <c r="B13" s="92"/>
       <c r="C13" s="92"/>
       <c r="D13" s="92"/>
-      <c r="E13" s="378"/>
+      <c r="E13" s="385"/>
       <c r="F13" s="165" t="str">
         <f>Dashboard!F19</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -10582,7 +10639,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="92"/>
-      <c r="E14" s="378"/>
+      <c r="E14" s="385"/>
       <c r="F14" s="165" t="str">
         <f>Dashboard!F20</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -10673,7 +10730,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="92"/>
-      <c r="E15" s="378"/>
+      <c r="E15" s="385"/>
       <c r="F15" s="165" t="str">
         <f>Dashboard!F21</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -10762,7 +10819,7 @@
       <c r="B16" s="85"/>
       <c r="C16" s="344"/>
       <c r="D16" s="92"/>
-      <c r="E16" s="378"/>
+      <c r="E16" s="385"/>
       <c r="F16" s="165" t="str">
         <f>Dashboard!F22</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -10849,11 +10906,11 @@
     <row r="17" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="85"/>
       <c r="B17" s="85"/>
-      <c r="C17" s="382" t="s">
+      <c r="C17" s="389" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="92"/>
-      <c r="E17" s="379"/>
+      <c r="E17" s="386"/>
       <c r="F17" s="166" t="str">
         <f>Dashboard!F23</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -10940,9 +10997,9 @@
     <row r="18" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="85"/>
       <c r="B18" s="86"/>
-      <c r="C18" s="383"/>
+      <c r="C18" s="390"/>
       <c r="D18" s="92"/>
-      <c r="E18" s="380" t="str">
+      <c r="E18" s="387" t="str">
         <f>Dashboard!E24</f>
         <v>Infrastruktur</v>
       </c>
@@ -11034,7 +11091,7 @@
       <c r="B19" s="92"/>
       <c r="C19" s="92"/>
       <c r="D19" s="92"/>
-      <c r="E19" s="378"/>
+      <c r="E19" s="385"/>
       <c r="F19" s="165" t="str">
         <f>Dashboard!F25</f>
         <v>IT Infrastruktur</v>
@@ -11137,7 +11194,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="92"/>
-      <c r="E20" s="378"/>
+      <c r="E20" s="385"/>
       <c r="F20" s="165" t="str">
         <f>Dashboard!F26</f>
         <v>AV Infrastruktur</v>
@@ -11238,7 +11295,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="92"/>
-      <c r="E21" s="378"/>
+      <c r="E21" s="385"/>
       <c r="F21" s="165" t="str">
         <f>Dashboard!F27</f>
         <v>&lt; Infrastruktur &gt;</v>
@@ -11327,7 +11384,7 @@
       <c r="B22" s="85"/>
       <c r="C22" s="344"/>
       <c r="D22" s="92"/>
-      <c r="E22" s="381"/>
+      <c r="E22" s="388"/>
       <c r="F22" s="165" t="str">
         <f>Dashboard!F28</f>
         <v>Andere nicht-raumspezifische Elemente</v>
@@ -11588,7 +11645,7 @@
       <c r="B26" s="84">
         <v>4</v>
       </c>
-      <c r="C26" s="375" t="s">
+      <c r="C26" s="382" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="36"/>
@@ -11596,32 +11653,32 @@
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
-      <c r="I26" s="388" t="s">
+      <c r="I26" s="376" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="389"/>
-      <c r="K26" s="389"/>
-      <c r="L26" s="389"/>
-      <c r="M26" s="390"/>
+      <c r="J26" s="377"/>
+      <c r="K26" s="377"/>
+      <c r="L26" s="377"/>
+      <c r="M26" s="378"/>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
-      <c r="P26" s="388" t="s">
+      <c r="P26" s="376" t="s">
         <v>52</v>
       </c>
-      <c r="Q26" s="389"/>
-      <c r="R26" s="389"/>
-      <c r="S26" s="389"/>
-      <c r="T26" s="390"/>
+      <c r="Q26" s="377"/>
+      <c r="R26" s="377"/>
+      <c r="S26" s="377"/>
+      <c r="T26" s="378"/>
       <c r="U26" s="36"/>
       <c r="V26" s="36"/>
       <c r="W26" s="36"/>
-      <c r="X26" s="388" t="s">
+      <c r="X26" s="376" t="s">
         <v>57</v>
       </c>
-      <c r="Y26" s="389"/>
-      <c r="Z26" s="389"/>
-      <c r="AA26" s="389"/>
-      <c r="AB26" s="390"/>
+      <c r="Y26" s="377"/>
+      <c r="Z26" s="377"/>
+      <c r="AA26" s="377"/>
+      <c r="AB26" s="378"/>
       <c r="AC26" s="36"/>
       <c r="AD26" s="36"/>
       <c r="AE26" s="36"/>
@@ -11631,7 +11688,7 @@
     <row r="27" spans="1:33" s="57" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="88"/>
-      <c r="C27" s="376"/>
+      <c r="C27" s="383"/>
       <c r="D27" s="73"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
@@ -11857,12 +11914,12 @@
       <c r="G38" s="55"/>
       <c r="H38" s="55"/>
       <c r="I38" s="55"/>
-      <c r="J38" s="373"/>
-      <c r="K38" s="373"/>
-      <c r="L38" s="373"/>
-      <c r="M38" s="373"/>
-      <c r="N38" s="373"/>
-      <c r="O38" s="373"/>
+      <c r="J38" s="375"/>
+      <c r="K38" s="375"/>
+      <c r="L38" s="375"/>
+      <c r="M38" s="375"/>
+      <c r="N38" s="375"/>
+      <c r="O38" s="375"/>
       <c r="P38" s="55"/>
       <c r="Q38" s="55"/>
       <c r="R38" s="55"/>
@@ -11887,13 +11944,13 @@
       <c r="G40" s="55"/>
       <c r="H40" s="55"/>
       <c r="I40" s="55"/>
-      <c r="J40" s="373"/>
-      <c r="K40" s="373"/>
-      <c r="L40" s="373"/>
-      <c r="M40" s="373"/>
-      <c r="N40" s="373"/>
-      <c r="O40" s="373"/>
-      <c r="P40" s="373"/>
+      <c r="J40" s="375"/>
+      <c r="K40" s="375"/>
+      <c r="L40" s="375"/>
+      <c r="M40" s="375"/>
+      <c r="N40" s="375"/>
+      <c r="O40" s="375"/>
+      <c r="P40" s="375"/>
       <c r="Q40" s="55"/>
       <c r="R40" s="55"/>
     </row>
@@ -11917,14 +11974,14 @@
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
       <c r="I42" s="55"/>
-      <c r="J42" s="373"/>
-      <c r="K42" s="373"/>
-      <c r="L42" s="373"/>
-      <c r="M42" s="373"/>
-      <c r="N42" s="373"/>
-      <c r="O42" s="373"/>
-      <c r="P42" s="373"/>
-      <c r="Q42" s="373"/>
+      <c r="J42" s="375"/>
+      <c r="K42" s="375"/>
+      <c r="L42" s="375"/>
+      <c r="M42" s="375"/>
+      <c r="N42" s="375"/>
+      <c r="O42" s="375"/>
+      <c r="P42" s="375"/>
+      <c r="Q42" s="375"/>
       <c r="R42" s="55"/>
     </row>
     <row r="43" spans="6:32" x14ac:dyDescent="0.2">
@@ -11960,13 +12017,6 @@
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="22">
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="X26:AB26"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="X6:AD6"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="C23:C24"/>
@@ -11982,6 +12032,13 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="X26:AB26"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="X6:AD6"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:G22">
     <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
@@ -12115,13 +12172,13 @@
     </row>
     <row r="2" spans="1:36" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="394" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
+      <c r="E2" s="395"/>
+      <c r="F2" s="395"/>
       <c r="G2" s="119"/>
       <c r="H2" s="70"/>
       <c r="I2" s="70"/>
@@ -12360,37 +12417,37 @@
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
-      <c r="I8" s="394" t="s">
+      <c r="I8" s="398" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="392"/>
-      <c r="K8" s="392"/>
-      <c r="L8" s="392"/>
-      <c r="M8" s="393"/>
+      <c r="J8" s="399"/>
+      <c r="K8" s="399"/>
+      <c r="L8" s="399"/>
+      <c r="M8" s="400"/>
       <c r="N8" s="127"/>
-      <c r="O8" s="394" t="s">
+      <c r="O8" s="398" t="s">
         <v>85</v>
       </c>
-      <c r="P8" s="392"/>
-      <c r="Q8" s="392"/>
-      <c r="R8" s="392"/>
-      <c r="S8" s="393"/>
+      <c r="P8" s="399"/>
+      <c r="Q8" s="399"/>
+      <c r="R8" s="399"/>
+      <c r="S8" s="400"/>
       <c r="T8" s="127"/>
-      <c r="U8" s="394" t="s">
+      <c r="U8" s="398" t="s">
         <v>86</v>
       </c>
-      <c r="V8" s="392"/>
-      <c r="W8" s="392"/>
-      <c r="X8" s="392"/>
-      <c r="Y8" s="393"/>
+      <c r="V8" s="399"/>
+      <c r="W8" s="399"/>
+      <c r="X8" s="399"/>
+      <c r="Y8" s="400"/>
       <c r="Z8" s="36"/>
-      <c r="AA8" s="394" t="s">
+      <c r="AA8" s="398" t="s">
         <v>87</v>
       </c>
-      <c r="AB8" s="392"/>
-      <c r="AC8" s="392"/>
-      <c r="AD8" s="392"/>
-      <c r="AE8" s="393"/>
+      <c r="AB8" s="399"/>
+      <c r="AC8" s="399"/>
+      <c r="AD8" s="399"/>
+      <c r="AE8" s="400"/>
       <c r="AF8" s="36"/>
       <c r="AG8" s="36"/>
       <c r="AH8" s="36"/>
@@ -12405,10 +12462,10 @@
       </c>
       <c r="D9" s="112"/>
       <c r="E9" s="36"/>
-      <c r="F9" s="401" t="s">
+      <c r="F9" s="396" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="402"/>
+      <c r="G9" s="397"/>
       <c r="H9" s="36"/>
       <c r="I9" s="132">
         <v>1</v>
@@ -12477,8 +12534,8 @@
       <c r="C10" s="344"/>
       <c r="D10" s="112"/>
       <c r="E10" s="36"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="402"/>
+      <c r="F10" s="397"/>
+      <c r="G10" s="397"/>
       <c r="H10" s="36"/>
       <c r="I10" s="295" t="s">
         <v>79</v>
@@ -12953,40 +13010,40 @@
       <c r="F17" s="127"/>
       <c r="G17" s="127"/>
       <c r="H17" s="178"/>
-      <c r="I17" s="394" t="s">
+      <c r="I17" s="398" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="392"/>
-      <c r="K17" s="392"/>
-      <c r="L17" s="392"/>
-      <c r="M17" s="393"/>
+      <c r="J17" s="399"/>
+      <c r="K17" s="399"/>
+      <c r="L17" s="399"/>
+      <c r="M17" s="400"/>
       <c r="N17" s="127"/>
-      <c r="O17" s="391" t="str">
+      <c r="O17" s="401" t="str">
         <f>I17</f>
         <v>PROZENTUALER ANTEIL DER AUFGEWENDETEN ZEIT (PRO RAUM, PRO STUFE)</v>
       </c>
-      <c r="P17" s="392"/>
-      <c r="Q17" s="392"/>
-      <c r="R17" s="392"/>
-      <c r="S17" s="393"/>
+      <c r="P17" s="399"/>
+      <c r="Q17" s="399"/>
+      <c r="R17" s="399"/>
+      <c r="S17" s="400"/>
       <c r="T17" s="36"/>
-      <c r="U17" s="391" t="str">
+      <c r="U17" s="401" t="str">
         <f>I17</f>
         <v>PROZENTUALER ANTEIL DER AUFGEWENDETEN ZEIT (PRO RAUM, PRO STUFE)</v>
       </c>
-      <c r="V17" s="392"/>
-      <c r="W17" s="392"/>
-      <c r="X17" s="392"/>
-      <c r="Y17" s="393"/>
+      <c r="V17" s="399"/>
+      <c r="W17" s="399"/>
+      <c r="X17" s="399"/>
+      <c r="Y17" s="400"/>
       <c r="Z17" s="36"/>
-      <c r="AA17" s="391" t="str">
+      <c r="AA17" s="401" t="str">
         <f>I17</f>
         <v>PROZENTUALER ANTEIL DER AUFGEWENDETEN ZEIT (PRO RAUM, PRO STUFE)</v>
       </c>
-      <c r="AB17" s="392"/>
-      <c r="AC17" s="392"/>
-      <c r="AD17" s="392"/>
-      <c r="AE17" s="393"/>
+      <c r="AB17" s="399"/>
+      <c r="AC17" s="399"/>
+      <c r="AD17" s="399"/>
+      <c r="AE17" s="400"/>
       <c r="AF17" s="36"/>
       <c r="AG17" s="36"/>
       <c r="AH17" s="36"/>
@@ -13004,37 +13061,37 @@
       <c r="F18" s="127"/>
       <c r="G18" s="127"/>
       <c r="H18" s="178"/>
-      <c r="I18" s="395" t="s">
+      <c r="I18" s="402" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="396"/>
-      <c r="K18" s="396"/>
-      <c r="L18" s="396"/>
-      <c r="M18" s="397"/>
+      <c r="J18" s="403"/>
+      <c r="K18" s="403"/>
+      <c r="L18" s="403"/>
+      <c r="M18" s="404"/>
       <c r="N18" s="127"/>
-      <c r="O18" s="395" t="s">
+      <c r="O18" s="402" t="s">
         <v>85</v>
       </c>
-      <c r="P18" s="396"/>
-      <c r="Q18" s="396"/>
-      <c r="R18" s="396"/>
-      <c r="S18" s="397"/>
+      <c r="P18" s="403"/>
+      <c r="Q18" s="403"/>
+      <c r="R18" s="403"/>
+      <c r="S18" s="404"/>
       <c r="T18" s="127"/>
-      <c r="U18" s="395" t="s">
+      <c r="U18" s="402" t="s">
         <v>86</v>
       </c>
-      <c r="V18" s="396"/>
-      <c r="W18" s="396"/>
-      <c r="X18" s="396"/>
-      <c r="Y18" s="397"/>
+      <c r="V18" s="403"/>
+      <c r="W18" s="403"/>
+      <c r="X18" s="403"/>
+      <c r="Y18" s="404"/>
       <c r="Z18" s="36"/>
-      <c r="AA18" s="395" t="s">
+      <c r="AA18" s="402" t="s">
         <v>87</v>
       </c>
-      <c r="AB18" s="396"/>
-      <c r="AC18" s="396"/>
-      <c r="AD18" s="396"/>
-      <c r="AE18" s="397"/>
+      <c r="AB18" s="403"/>
+      <c r="AC18" s="403"/>
+      <c r="AD18" s="403"/>
+      <c r="AE18" s="404"/>
       <c r="AF18" s="120"/>
       <c r="AG18" s="120"/>
       <c r="AH18" s="120"/>
@@ -13138,7 +13195,7 @@
       <c r="B20" s="37"/>
       <c r="C20" s="344"/>
       <c r="D20" s="112"/>
-      <c r="E20" s="377" t="str">
+      <c r="E20" s="384" t="str">
         <f>Dashboard!E14</f>
         <v>Räume</v>
       </c>
@@ -13219,7 +13276,7 @@
       <c r="B21" s="37"/>
       <c r="C21" s="344"/>
       <c r="D21" s="112"/>
-      <c r="E21" s="378"/>
+      <c r="E21" s="385"/>
       <c r="F21" s="167" t="str">
         <f>Dashboard!F15</f>
         <v>Projektlab</v>
@@ -13297,7 +13354,7 @@
       <c r="B22" s="37"/>
       <c r="C22" s="344"/>
       <c r="D22" s="112"/>
-      <c r="E22" s="378"/>
+      <c r="E22" s="385"/>
       <c r="F22" s="167" t="str">
         <f>Dashboard!F16</f>
         <v>Visualisierungssaal</v>
@@ -13375,7 +13432,7 @@
       <c r="B23" s="179"/>
       <c r="C23" s="344"/>
       <c r="D23" s="112"/>
-      <c r="E23" s="378"/>
+      <c r="E23" s="385"/>
       <c r="F23" s="167" t="str">
         <f>Dashboard!F17</f>
         <v>Gaming Zone</v>
@@ -13453,7 +13510,7 @@
       <c r="B24" s="37"/>
       <c r="C24" s="344"/>
       <c r="D24" s="112"/>
-      <c r="E24" s="378"/>
+      <c r="E24" s="385"/>
       <c r="F24" s="167" t="str">
         <f>Dashboard!F18</f>
         <v>Gruppenlernraum</v>
@@ -13531,7 +13588,7 @@
       <c r="B25" s="37"/>
       <c r="C25" s="344"/>
       <c r="D25" s="112"/>
-      <c r="E25" s="378"/>
+      <c r="E25" s="385"/>
       <c r="F25" s="167" t="str">
         <f>Dashboard!F19</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -13587,7 +13644,7 @@
       <c r="B26" s="37"/>
       <c r="C26" s="344"/>
       <c r="D26" s="112"/>
-      <c r="E26" s="378"/>
+      <c r="E26" s="385"/>
       <c r="F26" s="167" t="str">
         <f>Dashboard!F20</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -13643,7 +13700,7 @@
       <c r="B27" s="37"/>
       <c r="C27" s="344"/>
       <c r="D27" s="112"/>
-      <c r="E27" s="378"/>
+      <c r="E27" s="385"/>
       <c r="F27" s="167" t="str">
         <f>Dashboard!F21</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -13699,7 +13756,7 @@
       <c r="B28" s="37"/>
       <c r="C28" s="344"/>
       <c r="D28" s="112"/>
-      <c r="E28" s="378"/>
+      <c r="E28" s="385"/>
       <c r="F28" s="167" t="str">
         <f>Dashboard!F22</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -13755,7 +13812,7 @@
       <c r="B29" s="37"/>
       <c r="C29" s="344"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="379"/>
+      <c r="E29" s="386"/>
       <c r="F29" s="168" t="str">
         <f>Dashboard!F23</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -13811,7 +13868,7 @@
       <c r="B30" s="37"/>
       <c r="C30" s="344"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="398" t="str">
+      <c r="E30" s="405" t="str">
         <f>Dashboard!E24</f>
         <v>Infrastruktur</v>
       </c>
@@ -13884,7 +13941,7 @@
       <c r="B31" s="37"/>
       <c r="C31" s="344"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="378"/>
+      <c r="E31" s="385"/>
       <c r="F31" s="170" t="str">
         <f>Dashboard!F25</f>
         <v>IT Infrastruktur</v>
@@ -13954,7 +14011,7 @@
       <c r="B32" s="37"/>
       <c r="C32" s="344"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="378"/>
+      <c r="E32" s="385"/>
       <c r="F32" s="170" t="str">
         <f>Dashboard!F26</f>
         <v>AV Infrastruktur</v>
@@ -14024,7 +14081,7 @@
       <c r="B33" s="37"/>
       <c r="C33" s="344"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="378"/>
+      <c r="E33" s="385"/>
       <c r="F33" s="170" t="str">
         <f>Dashboard!F27</f>
         <v>&lt; Infrastruktur &gt;</v>
@@ -14080,7 +14137,7 @@
       <c r="B34" s="80"/>
       <c r="C34" s="345"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="378"/>
+      <c r="E34" s="385"/>
       <c r="F34" s="171" t="str">
         <f>Dashboard!F28</f>
         <v>Andere nicht-raumspezifische Elemente</v>
@@ -14284,20 +14341,20 @@
       <c r="F37" s="127"/>
       <c r="G37" s="127"/>
       <c r="H37" s="127"/>
-      <c r="I37" s="394" t="s">
+      <c r="I37" s="398" t="s">
         <v>101</v>
       </c>
-      <c r="J37" s="392"/>
-      <c r="K37" s="392"/>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
-      <c r="P37" s="392"/>
-      <c r="Q37" s="392"/>
-      <c r="R37" s="392"/>
-      <c r="S37" s="392"/>
-      <c r="T37" s="393"/>
+      <c r="J37" s="399"/>
+      <c r="K37" s="399"/>
+      <c r="L37" s="399"/>
+      <c r="M37" s="399"/>
+      <c r="N37" s="399"/>
+      <c r="O37" s="399"/>
+      <c r="P37" s="399"/>
+      <c r="Q37" s="399"/>
+      <c r="R37" s="399"/>
+      <c r="S37" s="399"/>
+      <c r="T37" s="400"/>
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
       <c r="W37" s="120"/>
@@ -14328,22 +14385,22 @@
         <v>17</v>
       </c>
       <c r="H38" s="36"/>
-      <c r="I38" s="403" t="s">
+      <c r="I38" s="391" t="s">
         <v>83</v>
       </c>
-      <c r="J38" s="404"/>
-      <c r="K38" s="404"/>
-      <c r="L38" s="404"/>
-      <c r="M38" s="405"/>
+      <c r="J38" s="392"/>
+      <c r="K38" s="392"/>
+      <c r="L38" s="392"/>
+      <c r="M38" s="393"/>
       <c r="N38" s="36"/>
-      <c r="O38" s="403" t="s">
+      <c r="O38" s="391" t="s">
         <v>35</v>
       </c>
-      <c r="P38" s="404"/>
-      <c r="Q38" s="404"/>
-      <c r="R38" s="404"/>
-      <c r="S38" s="404"/>
-      <c r="T38" s="405"/>
+      <c r="P38" s="392"/>
+      <c r="Q38" s="392"/>
+      <c r="R38" s="392"/>
+      <c r="S38" s="392"/>
+      <c r="T38" s="393"/>
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
       <c r="W38" s="120"/>
@@ -14426,7 +14483,7 @@
       <c r="B40" s="64"/>
       <c r="C40" s="344"/>
       <c r="D40" s="74"/>
-      <c r="E40" s="377" t="str">
+      <c r="E40" s="384" t="str">
         <f>Dashboard!E14</f>
         <v>Räume</v>
       </c>
@@ -14506,7 +14563,7 @@
       <c r="B41" s="64"/>
       <c r="C41" s="344"/>
       <c r="D41" s="74"/>
-      <c r="E41" s="378"/>
+      <c r="E41" s="385"/>
       <c r="F41" s="162" t="str">
         <f>Dashboard!F15</f>
         <v>Projektlab</v>
@@ -14583,7 +14640,7 @@
       <c r="B42" s="64"/>
       <c r="C42" s="344"/>
       <c r="D42" s="74"/>
-      <c r="E42" s="378"/>
+      <c r="E42" s="385"/>
       <c r="F42" s="162" t="str">
         <f>Dashboard!F16</f>
         <v>Visualisierungssaal</v>
@@ -14660,7 +14717,7 @@
       <c r="B43" s="64"/>
       <c r="C43" s="344"/>
       <c r="D43" s="74"/>
-      <c r="E43" s="378"/>
+      <c r="E43" s="385"/>
       <c r="F43" s="162" t="str">
         <f>Dashboard!F17</f>
         <v>Gaming Zone</v>
@@ -14737,7 +14794,7 @@
       <c r="B44" s="64"/>
       <c r="C44" s="344"/>
       <c r="D44" s="74"/>
-      <c r="E44" s="378"/>
+      <c r="E44" s="385"/>
       <c r="F44" s="162" t="str">
         <f>Dashboard!F18</f>
         <v>Gruppenlernraum</v>
@@ -14814,7 +14871,7 @@
       <c r="B45" s="64"/>
       <c r="C45" s="344"/>
       <c r="D45" s="74"/>
-      <c r="E45" s="378"/>
+      <c r="E45" s="385"/>
       <c r="F45" s="162" t="str">
         <f>Dashboard!F19</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -14891,7 +14948,7 @@
       <c r="B46" s="64"/>
       <c r="C46" s="344"/>
       <c r="D46" s="74"/>
-      <c r="E46" s="378"/>
+      <c r="E46" s="385"/>
       <c r="F46" s="162" t="str">
         <f>Dashboard!F20</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -14968,7 +15025,7 @@
       <c r="B47" s="64"/>
       <c r="C47" s="344"/>
       <c r="D47" s="74"/>
-      <c r="E47" s="378"/>
+      <c r="E47" s="385"/>
       <c r="F47" s="162" t="str">
         <f>Dashboard!F21</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -15045,7 +15102,7 @@
       <c r="B48" s="64"/>
       <c r="C48" s="344"/>
       <c r="D48" s="74"/>
-      <c r="E48" s="378"/>
+      <c r="E48" s="385"/>
       <c r="F48" s="162" t="str">
         <f>Dashboard!F22</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -15122,7 +15179,7 @@
       <c r="B49" s="64"/>
       <c r="C49" s="344"/>
       <c r="D49" s="74"/>
-      <c r="E49" s="379"/>
+      <c r="E49" s="386"/>
       <c r="F49" s="163" t="str">
         <f>Dashboard!F23</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -15199,7 +15256,7 @@
       <c r="B50" s="64"/>
       <c r="C50" s="344"/>
       <c r="D50" s="74"/>
-      <c r="E50" s="380" t="str">
+      <c r="E50" s="387" t="str">
         <f>Dashboard!E24</f>
         <v>Infrastruktur</v>
       </c>
@@ -15279,7 +15336,7 @@
       <c r="B51" s="64"/>
       <c r="C51" s="344"/>
       <c r="D51" s="74"/>
-      <c r="E51" s="378"/>
+      <c r="E51" s="385"/>
       <c r="F51" s="162" t="str">
         <f>Dashboard!F25</f>
         <v>IT Infrastruktur</v>
@@ -15356,7 +15413,7 @@
       <c r="B52" s="64"/>
       <c r="C52" s="344"/>
       <c r="D52" s="74"/>
-      <c r="E52" s="378"/>
+      <c r="E52" s="385"/>
       <c r="F52" s="162" t="str">
         <f>Dashboard!F26</f>
         <v>AV Infrastruktur</v>
@@ -15433,7 +15490,7 @@
       <c r="B53" s="64"/>
       <c r="C53" s="344"/>
       <c r="D53" s="74"/>
-      <c r="E53" s="378"/>
+      <c r="E53" s="385"/>
       <c r="F53" s="162" t="str">
         <f>Dashboard!F27</f>
         <v>&lt; Infrastruktur &gt;</v>
@@ -15510,7 +15567,7 @@
       <c r="B54" s="65"/>
       <c r="C54" s="345"/>
       <c r="D54" s="74"/>
-      <c r="E54" s="381"/>
+      <c r="E54" s="388"/>
       <c r="F54" s="162" t="str">
         <f>Dashboard!F28</f>
         <v>Andere nicht-raumspezifische Elemente</v>
@@ -15812,20 +15869,6 @@
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="27">
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="O38:T38"/>
-    <mergeCell ref="E40:E49"/>
-    <mergeCell ref="C38:C54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="U8:Y8"/>
     <mergeCell ref="AA17:AE17"/>
     <mergeCell ref="C18:C34"/>
     <mergeCell ref="I37:T37"/>
@@ -15839,6 +15882,20 @@
     <mergeCell ref="E30:E34"/>
     <mergeCell ref="O17:S17"/>
     <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="O38:T38"/>
+    <mergeCell ref="E40:E49"/>
+    <mergeCell ref="C38:C54"/>
+    <mergeCell ref="E50:E54"/>
   </mergeCells>
   <conditionalFormatting sqref="I20:L34 O20:R34 U20:X34 AA20:AD34">
     <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
@@ -15898,7 +15955,7 @@
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -17030,11 +17087,6 @@
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="14">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="N4:U4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="N12:X12"/>
     <mergeCell ref="C14:C22"/>
@@ -17044,6 +17096,11 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="N4:U4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I28">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">

--- a/docs/00_Tools/09_02_DE_Integrated_Budgeting_Tool.xlsx
+++ b/docs/00_Tools/09_02_DE_Integrated_Budgeting_Tool.xlsx
@@ -826,13 +826,13 @@
     <t>Zulagenfaktor</t>
   </si>
   <si>
-    <t>Übersetzung: Katharina Zinke, Unversitätsbibliothek Tübingen</t>
-  </si>
-  <si>
     <t>Lizenziert unter CC BY 4.0</t>
   </si>
   <si>
     <t xml:space="preserve">Original: www.learningspacetoolkit.org </t>
+  </si>
+  <si>
+    <t>Übersetzung: Katharina Zinke, Universitätsbibliothek Tübingen</t>
   </si>
 </sst>
 </file>
@@ -4160,6 +4160,7 @@
     <xf numFmtId="5" fontId="36" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4300,6 +4301,45 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4312,9 +4352,6 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4324,41 +4361,41 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4369,42 +4406,6 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4417,7 +4418,6 @@
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1351">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5941,7 +5941,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6399,7 +6398,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6454,7 +6452,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6837,7 +6834,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7271,7 +7267,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:N11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7305,20 +7301,20 @@
     <row r="2" spans="1:15" ht="66.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="328" t="s">
+      <c r="C2" s="329" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
-      <c r="L2" s="329"/>
-      <c r="M2" s="329"/>
-      <c r="N2" s="329"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="330"/>
+      <c r="F2" s="330"/>
+      <c r="G2" s="330"/>
+      <c r="H2" s="330"/>
+      <c r="I2" s="330"/>
+      <c r="J2" s="330"/>
+      <c r="K2" s="330"/>
+      <c r="L2" s="330"/>
+      <c r="M2" s="330"/>
+      <c r="N2" s="330"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -7344,38 +7340,38 @@
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="330" t="s">
+      <c r="D4" s="331" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="331"/>
-      <c r="F4" s="331"/>
-      <c r="G4" s="331"/>
-      <c r="H4" s="331"/>
-      <c r="I4" s="331"/>
-      <c r="J4" s="331"/>
-      <c r="K4" s="331"/>
-      <c r="L4" s="331"/>
-      <c r="M4" s="331"/>
-      <c r="N4" s="331"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="332"/>
+      <c r="J4" s="332"/>
+      <c r="K4" s="332"/>
+      <c r="L4" s="332"/>
+      <c r="M4" s="332"/>
+      <c r="N4" s="332"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="330" t="s">
+      <c r="D5" s="331" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="331"/>
-      <c r="F5" s="331"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331"/>
-      <c r="I5" s="331"/>
-      <c r="J5" s="331"/>
-      <c r="K5" s="331"/>
-      <c r="L5" s="331"/>
-      <c r="M5" s="331"/>
-      <c r="N5" s="331"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="332"/>
+      <c r="J5" s="332"/>
+      <c r="K5" s="332"/>
+      <c r="L5" s="332"/>
+      <c r="M5" s="332"/>
+      <c r="N5" s="332"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7398,28 +7394,28 @@
     <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="327" t="s">
+      <c r="C7" s="328" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="332" t="s">
+      <c r="D7" s="333" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="333"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="333"/>
-      <c r="I7" s="333"/>
-      <c r="J7" s="333"/>
-      <c r="K7" s="333"/>
-      <c r="L7" s="333"/>
-      <c r="M7" s="333"/>
-      <c r="N7" s="333"/>
+      <c r="E7" s="334"/>
+      <c r="F7" s="334"/>
+      <c r="G7" s="334"/>
+      <c r="H7" s="334"/>
+      <c r="I7" s="334"/>
+      <c r="J7" s="334"/>
+      <c r="K7" s="334"/>
+      <c r="L7" s="334"/>
+      <c r="M7" s="334"/>
+      <c r="N7" s="334"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="327"/>
+      <c r="C8" s="328"/>
       <c r="D8" s="217" t="s">
         <v>6</v>
       </c>
@@ -7438,77 +7434,77 @@
     <row r="9" spans="1:15" s="62" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="327"/>
-      <c r="D9" s="334" t="s">
+      <c r="C9" s="328"/>
+      <c r="D9" s="335" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="334"/>
-      <c r="F9" s="334"/>
-      <c r="G9" s="334"/>
-      <c r="H9" s="334"/>
-      <c r="I9" s="334"/>
-      <c r="J9" s="334"/>
-      <c r="K9" s="334"/>
-      <c r="L9" s="334"/>
-      <c r="M9" s="334"/>
-      <c r="N9" s="334"/>
+      <c r="E9" s="335"/>
+      <c r="F9" s="335"/>
+      <c r="G9" s="335"/>
+      <c r="H9" s="335"/>
+      <c r="I9" s="335"/>
+      <c r="J9" s="335"/>
+      <c r="K9" s="335"/>
+      <c r="L9" s="335"/>
+      <c r="M9" s="335"/>
+      <c r="N9" s="335"/>
       <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" s="62" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="325" t="s">
+      <c r="D10" s="326" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="325"/>
-      <c r="F10" s="325"/>
-      <c r="G10" s="325"/>
-      <c r="H10" s="325"/>
-      <c r="I10" s="325"/>
-      <c r="J10" s="325"/>
-      <c r="K10" s="325"/>
-      <c r="L10" s="325"/>
-      <c r="M10" s="325"/>
-      <c r="N10" s="325"/>
+      <c r="E10" s="326"/>
+      <c r="F10" s="326"/>
+      <c r="G10" s="326"/>
+      <c r="H10" s="326"/>
+      <c r="I10" s="326"/>
+      <c r="J10" s="326"/>
+      <c r="K10" s="326"/>
+      <c r="L10" s="326"/>
+      <c r="M10" s="326"/>
+      <c r="N10" s="326"/>
       <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" s="62" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="326" t="s">
+      <c r="D11" s="327" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="325"/>
-      <c r="F11" s="325"/>
-      <c r="G11" s="325"/>
-      <c r="H11" s="325"/>
-      <c r="I11" s="325"/>
-      <c r="J11" s="325"/>
-      <c r="K11" s="325"/>
-      <c r="L11" s="325"/>
-      <c r="M11" s="325"/>
-      <c r="N11" s="325"/>
+      <c r="E11" s="326"/>
+      <c r="F11" s="326"/>
+      <c r="G11" s="326"/>
+      <c r="H11" s="326"/>
+      <c r="I11" s="326"/>
+      <c r="J11" s="326"/>
+      <c r="K11" s="326"/>
+      <c r="L11" s="326"/>
+      <c r="M11" s="326"/>
+      <c r="N11" s="326"/>
       <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="325" t="s">
+      <c r="D12" s="326" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="325"/>
-      <c r="F12" s="325"/>
-      <c r="G12" s="325"/>
-      <c r="H12" s="325"/>
-      <c r="I12" s="325"/>
-      <c r="J12" s="325"/>
-      <c r="K12" s="325"/>
-      <c r="L12" s="325"/>
-      <c r="M12" s="325"/>
-      <c r="N12" s="325"/>
+      <c r="E12" s="326"/>
+      <c r="F12" s="326"/>
+      <c r="G12" s="326"/>
+      <c r="H12" s="326"/>
+      <c r="I12" s="326"/>
+      <c r="J12" s="326"/>
+      <c r="K12" s="326"/>
+      <c r="L12" s="326"/>
+      <c r="M12" s="326"/>
+      <c r="N12" s="326"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -7532,8 +7528,8 @@
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="410" t="s">
-        <v>135</v>
+      <c r="D14" s="325" t="s">
+        <v>134</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -7551,8 +7547,8 @@
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="410" t="s">
-        <v>133</v>
+      <c r="D15" s="325" t="s">
+        <v>135</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -7570,8 +7566,8 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="410" t="s">
-        <v>134</v>
+      <c r="D16" s="325" t="s">
+        <v>133</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -7680,16 +7676,16 @@
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="335" t="s">
+      <c r="B2" s="336" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -7736,13 +7732,13 @@
     </row>
     <row r="4" spans="1:25" s="54" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="356" t="s">
+      <c r="B4" s="357" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="337"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
+      <c r="C4" s="338"/>
+      <c r="D4" s="338"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
       <c r="G4" s="13"/>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -7750,14 +7746,14 @@
       <c r="K4" s="51"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="337"/>
-      <c r="O4" s="337"/>
-      <c r="P4" s="337"/>
-      <c r="Q4" s="337"/>
-      <c r="R4" s="337"/>
-      <c r="S4" s="337"/>
-      <c r="T4" s="337"/>
-      <c r="U4" s="337"/>
+      <c r="N4" s="338"/>
+      <c r="O4" s="338"/>
+      <c r="P4" s="338"/>
+      <c r="Q4" s="338"/>
+      <c r="R4" s="338"/>
+      <c r="S4" s="338"/>
+      <c r="T4" s="338"/>
+      <c r="U4" s="338"/>
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
@@ -7765,13 +7761,13 @@
     </row>
     <row r="5" spans="1:25" s="54" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
-      <c r="B5" s="356" t="s">
+      <c r="B5" s="357" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="337"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="337"/>
-      <c r="F5" s="337"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
       <c r="G5" s="13"/>
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
@@ -7821,10 +7817,10 @@
     </row>
     <row r="7" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="338" t="s">
+      <c r="B7" s="339" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="339"/>
+      <c r="C7" s="340"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -7885,10 +7881,10 @@
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="354" t="s">
+      <c r="F9" s="355" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="357">
+      <c r="G9" s="358">
         <v>5</v>
       </c>
       <c r="H9" s="37"/>
@@ -7918,8 +7914,8 @@
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="38"/>
-      <c r="F10" s="355"/>
-      <c r="G10" s="358"/>
+      <c r="F10" s="356"/>
+      <c r="G10" s="359"/>
       <c r="H10" s="37"/>
       <c r="I10" s="99"/>
       <c r="J10" s="36"/>
@@ -7979,26 +7975,26 @@
       <c r="F12" s="11"/>
       <c r="G12" s="19"/>
       <c r="H12" s="108"/>
-      <c r="I12" s="359" t="s">
+      <c r="I12" s="360" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="360"/>
-      <c r="K12" s="360"/>
-      <c r="L12" s="361"/>
+      <c r="J12" s="361"/>
+      <c r="K12" s="361"/>
+      <c r="L12" s="362"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="351" t="s">
+      <c r="N12" s="352" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="352"/>
-      <c r="P12" s="352"/>
-      <c r="Q12" s="352"/>
-      <c r="R12" s="352"/>
-      <c r="S12" s="352"/>
-      <c r="T12" s="352"/>
-      <c r="U12" s="352"/>
-      <c r="V12" s="352"/>
-      <c r="W12" s="352"/>
-      <c r="X12" s="353"/>
+      <c r="O12" s="353"/>
+      <c r="P12" s="353"/>
+      <c r="Q12" s="353"/>
+      <c r="R12" s="353"/>
+      <c r="S12" s="353"/>
+      <c r="T12" s="353"/>
+      <c r="U12" s="353"/>
+      <c r="V12" s="353"/>
+      <c r="W12" s="353"/>
+      <c r="X12" s="354"/>
       <c r="Y12" s="49"/>
     </row>
     <row r="13" spans="1:25" s="58" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -8043,11 +8039,11 @@
     <row r="14" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="40"/>
-      <c r="C14" s="340" t="s">
+      <c r="C14" s="341" t="s">
         <v>127</v>
       </c>
       <c r="D14" s="22"/>
-      <c r="E14" s="346" t="s">
+      <c r="E14" s="347" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="232" t="s">
@@ -8090,9 +8086,9 @@
     <row r="15" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="40"/>
-      <c r="C15" s="341"/>
+      <c r="C15" s="342"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="347"/>
+      <c r="E15" s="348"/>
       <c r="F15" s="230" t="s">
         <v>21</v>
       </c>
@@ -8133,9 +8129,9 @@
     <row r="16" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="40"/>
-      <c r="C16" s="341"/>
+      <c r="C16" s="342"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="347"/>
+      <c r="E16" s="348"/>
       <c r="F16" s="230" t="s">
         <v>22</v>
       </c>
@@ -8176,9 +8172,9 @@
     <row r="17" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="40"/>
-      <c r="C17" s="341"/>
+      <c r="C17" s="342"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="347"/>
+      <c r="E17" s="348"/>
       <c r="F17" s="159" t="s">
         <v>2</v>
       </c>
@@ -8219,9 +8215,9 @@
     <row r="18" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="40"/>
-      <c r="C18" s="341"/>
+      <c r="C18" s="342"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="347"/>
+      <c r="E18" s="348"/>
       <c r="F18" s="230" t="s">
         <v>23</v>
       </c>
@@ -8262,9 +8258,9 @@
     <row r="19" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="40"/>
-      <c r="C19" s="341"/>
+      <c r="C19" s="342"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="347"/>
+      <c r="E19" s="348"/>
       <c r="F19" s="230" t="s">
         <v>26</v>
       </c>
@@ -8303,9 +8299,9 @@
     <row r="20" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="40"/>
-      <c r="C20" s="341"/>
+      <c r="C20" s="342"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="347"/>
+      <c r="E20" s="348"/>
       <c r="F20" s="230" t="s">
         <v>26</v>
       </c>
@@ -8344,9 +8340,9 @@
     <row r="21" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="40"/>
-      <c r="C21" s="341"/>
+      <c r="C21" s="342"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="347"/>
+      <c r="E21" s="348"/>
       <c r="F21" s="230" t="s">
         <v>26</v>
       </c>
@@ -8385,9 +8381,9 @@
     <row r="22" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="41"/>
-      <c r="C22" s="342"/>
+      <c r="C22" s="343"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="347"/>
+      <c r="E22" s="348"/>
       <c r="F22" s="230" t="s">
         <v>26</v>
       </c>
@@ -8428,7 +8424,7 @@
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="348"/>
+      <c r="E23" s="349"/>
       <c r="F23" s="231" t="s">
         <v>26</v>
       </c>
@@ -8473,7 +8469,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="22"/>
-      <c r="E24" s="349" t="s">
+      <c r="E24" s="350" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="232" t="s">
@@ -8516,11 +8512,11 @@
     <row r="25" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="40"/>
-      <c r="C25" s="343" t="s">
+      <c r="C25" s="344" t="s">
         <v>128</v>
       </c>
       <c r="D25" s="22"/>
-      <c r="E25" s="347"/>
+      <c r="E25" s="348"/>
       <c r="F25" s="230" t="s">
         <v>28</v>
       </c>
@@ -8561,9 +8557,9 @@
     <row r="26" spans="1:25" s="58" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="40"/>
-      <c r="C26" s="344"/>
+      <c r="C26" s="345"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="347"/>
+      <c r="E26" s="348"/>
       <c r="F26" s="230" t="s">
         <v>29</v>
       </c>
@@ -8604,9 +8600,9 @@
     <row r="27" spans="1:25" s="58" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="40"/>
-      <c r="C27" s="344"/>
+      <c r="C27" s="345"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="347"/>
+      <c r="E27" s="348"/>
       <c r="F27" s="233" t="s">
         <v>30</v>
       </c>
@@ -8647,9 +8643,9 @@
     <row r="28" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="41"/>
-      <c r="C28" s="345"/>
+      <c r="C28" s="346"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="350"/>
+      <c r="E28" s="351"/>
       <c r="F28" s="230" t="s">
         <v>31</v>
       </c>
@@ -8994,13 +8990,13 @@
     </row>
     <row r="4" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
-      <c r="B4" s="365" t="s">
+      <c r="B4" s="366" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="366"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
-      <c r="F4" s="366"/>
+      <c r="C4" s="367"/>
+      <c r="D4" s="367"/>
+      <c r="E4" s="367"/>
+      <c r="F4" s="367"/>
       <c r="G4" s="98"/>
       <c r="H4" s="97"/>
       <c r="I4" s="97"/>
@@ -9030,24 +9026,24 @@
     </row>
     <row r="6" spans="1:15" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
-      <c r="B6" s="364" t="s">
+      <c r="B6" s="365" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="339"/>
+      <c r="C6" s="340"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="71"/>
-      <c r="G6" s="369" t="s">
+      <c r="G6" s="370" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="36"/>
-      <c r="I6" s="351" t="s">
+      <c r="I6" s="352" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="352"/>
-      <c r="K6" s="352"/>
-      <c r="L6" s="352"/>
-      <c r="M6" s="353"/>
+      <c r="J6" s="353"/>
+      <c r="K6" s="353"/>
+      <c r="L6" s="353"/>
+      <c r="M6" s="354"/>
       <c r="N6" s="17"/>
       <c r="O6" s="47"/>
     </row>
@@ -9058,7 +9054,7 @@
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="370"/>
+      <c r="G7" s="371"/>
       <c r="H7" s="73"/>
       <c r="I7" s="272" t="s">
         <v>64</v>
@@ -9087,7 +9083,7 @@
         <v>62</v>
       </c>
       <c r="D8" s="74"/>
-      <c r="E8" s="367" t="str">
+      <c r="E8" s="368" t="str">
         <f>Dashboard!E14</f>
         <v>Räume</v>
       </c>
@@ -9123,11 +9119,11 @@
     <row r="9" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="64"/>
       <c r="B9" s="64"/>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="344" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="74"/>
-      <c r="E9" s="362"/>
+      <c r="E9" s="363"/>
       <c r="F9" s="162" t="str">
         <f>Dashboard!F15</f>
         <v>Projektlab</v>
@@ -9160,9 +9156,9 @@
     <row r="10" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64"/>
       <c r="B10" s="64"/>
-      <c r="C10" s="344"/>
+      <c r="C10" s="345"/>
       <c r="D10" s="74"/>
-      <c r="E10" s="362"/>
+      <c r="E10" s="363"/>
       <c r="F10" s="162" t="str">
         <f>Dashboard!F16</f>
         <v>Visualisierungssaal</v>
@@ -9195,9 +9191,9 @@
     <row r="11" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="64"/>
       <c r="B11" s="64"/>
-      <c r="C11" s="344"/>
+      <c r="C11" s="345"/>
       <c r="D11" s="74"/>
-      <c r="E11" s="362"/>
+      <c r="E11" s="363"/>
       <c r="F11" s="162" t="str">
         <f>Dashboard!F17</f>
         <v>Gaming Zone</v>
@@ -9230,9 +9226,9 @@
     <row r="12" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
       <c r="B12" s="64"/>
-      <c r="C12" s="344"/>
+      <c r="C12" s="345"/>
       <c r="D12" s="74"/>
-      <c r="E12" s="362"/>
+      <c r="E12" s="363"/>
       <c r="F12" s="162" t="str">
         <f>Dashboard!F18</f>
         <v>Gruppenlernraum</v>
@@ -9265,9 +9261,9 @@
     <row r="13" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
-      <c r="C13" s="344"/>
+      <c r="C13" s="345"/>
       <c r="D13" s="74"/>
-      <c r="E13" s="362"/>
+      <c r="E13" s="363"/>
       <c r="F13" s="162" t="str">
         <f>Dashboard!F19</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -9294,9 +9290,9 @@
     <row r="14" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
-      <c r="C14" s="344"/>
+      <c r="C14" s="345"/>
       <c r="D14" s="74"/>
-      <c r="E14" s="362"/>
+      <c r="E14" s="363"/>
       <c r="F14" s="162" t="str">
         <f>Dashboard!F20</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -9323,9 +9319,9 @@
     <row r="15" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="64"/>
       <c r="B15" s="64"/>
-      <c r="C15" s="344"/>
+      <c r="C15" s="345"/>
       <c r="D15" s="74"/>
-      <c r="E15" s="362"/>
+      <c r="E15" s="363"/>
       <c r="F15" s="162" t="str">
         <f>Dashboard!F21</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -9352,9 +9348,9 @@
     <row r="16" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="64"/>
       <c r="B16" s="64"/>
-      <c r="C16" s="344"/>
+      <c r="C16" s="345"/>
       <c r="D16" s="74"/>
-      <c r="E16" s="362"/>
+      <c r="E16" s="363"/>
       <c r="F16" s="162" t="str">
         <f>Dashboard!F22</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -9381,9 +9377,9 @@
     <row r="17" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="64"/>
       <c r="B17" s="64"/>
-      <c r="C17" s="344"/>
+      <c r="C17" s="345"/>
       <c r="D17" s="74"/>
-      <c r="E17" s="368"/>
+      <c r="E17" s="369"/>
       <c r="F17" s="163" t="str">
         <f>Dashboard!F23</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -9410,9 +9406,9 @@
     <row r="18" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="64"/>
       <c r="B18" s="64"/>
-      <c r="C18" s="344"/>
+      <c r="C18" s="345"/>
       <c r="D18" s="74"/>
-      <c r="E18" s="362" t="str">
+      <c r="E18" s="363" t="str">
         <f>Dashboard!E24</f>
         <v>Infrastruktur</v>
       </c>
@@ -9442,9 +9438,9 @@
     <row r="19" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64"/>
       <c r="B19" s="64"/>
-      <c r="C19" s="344"/>
+      <c r="C19" s="345"/>
       <c r="D19" s="74"/>
-      <c r="E19" s="362"/>
+      <c r="E19" s="363"/>
       <c r="F19" s="162" t="str">
         <f>Dashboard!F25</f>
         <v>IT Infrastruktur</v>
@@ -9471,9 +9467,9 @@
     <row r="20" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="64"/>
       <c r="B20" s="64"/>
-      <c r="C20" s="344"/>
+      <c r="C20" s="345"/>
       <c r="D20" s="74"/>
-      <c r="E20" s="362"/>
+      <c r="E20" s="363"/>
       <c r="F20" s="162" t="str">
         <f>Dashboard!F26</f>
         <v>AV Infrastruktur</v>
@@ -9500,9 +9496,9 @@
     <row r="21" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
-      <c r="C21" s="344"/>
+      <c r="C21" s="345"/>
       <c r="D21" s="74"/>
-      <c r="E21" s="362"/>
+      <c r="E21" s="363"/>
       <c r="F21" s="162" t="str">
         <f>Dashboard!F27</f>
         <v>&lt; Infrastruktur &gt;</v>
@@ -9529,9 +9525,9 @@
     <row r="22" spans="1:15" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="64"/>
       <c r="B22" s="65"/>
-      <c r="C22" s="345"/>
+      <c r="C22" s="346"/>
       <c r="D22" s="74"/>
-      <c r="E22" s="363"/>
+      <c r="E22" s="364"/>
       <c r="F22" s="162" t="str">
         <f>Dashboard!F28</f>
         <v>Andere nicht-raumspezifische Elemente</v>
@@ -9771,20 +9767,20 @@
     </row>
     <row r="2" spans="1:33" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
-      <c r="B2" s="379" t="s">
+      <c r="B2" s="372" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="380"/>
-      <c r="D2" s="380"/>
-      <c r="E2" s="380"/>
-      <c r="F2" s="380"/>
-      <c r="G2" s="380"/>
-      <c r="H2" s="380"/>
-      <c r="I2" s="380"/>
-      <c r="J2" s="380"/>
-      <c r="K2" s="380"/>
-      <c r="L2" s="380"/>
-      <c r="M2" s="380"/>
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373"/>
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="373"/>
+      <c r="I2" s="373"/>
+      <c r="J2" s="373"/>
+      <c r="K2" s="373"/>
+      <c r="L2" s="373"/>
+      <c r="M2" s="373"/>
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
@@ -9843,13 +9839,13 @@
     </row>
     <row r="4" spans="1:33" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
-      <c r="B4" s="365" t="s">
+      <c r="B4" s="366" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="366"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
-      <c r="F4" s="366"/>
+      <c r="C4" s="367"/>
+      <c r="D4" s="367"/>
+      <c r="E4" s="367"/>
+      <c r="F4" s="367"/>
       <c r="G4" s="90"/>
       <c r="H4" s="97"/>
       <c r="I4" s="97"/>
@@ -9915,45 +9911,45 @@
     </row>
     <row r="6" spans="1:33" s="58" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
-      <c r="B6" s="364" t="s">
+      <c r="B6" s="365" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="339"/>
+      <c r="C6" s="340"/>
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
-      <c r="I6" s="381" t="s">
+      <c r="I6" s="375" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="352"/>
-      <c r="K6" s="352"/>
-      <c r="L6" s="352"/>
-      <c r="M6" s="352"/>
-      <c r="N6" s="353"/>
+      <c r="J6" s="353"/>
+      <c r="K6" s="353"/>
+      <c r="L6" s="353"/>
+      <c r="M6" s="353"/>
+      <c r="N6" s="354"/>
       <c r="O6" s="74"/>
-      <c r="P6" s="373" t="s">
+      <c r="P6" s="387" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="374"/>
-      <c r="R6" s="374"/>
-      <c r="S6" s="374"/>
-      <c r="T6" s="374"/>
-      <c r="U6" s="374"/>
-      <c r="V6" s="374"/>
+      <c r="Q6" s="388"/>
+      <c r="R6" s="388"/>
+      <c r="S6" s="388"/>
+      <c r="T6" s="388"/>
+      <c r="U6" s="388"/>
+      <c r="V6" s="388"/>
       <c r="W6" s="74"/>
-      <c r="X6" s="373" t="s">
+      <c r="X6" s="387" t="s">
         <v>56</v>
       </c>
-      <c r="Y6" s="374"/>
-      <c r="Z6" s="374"/>
-      <c r="AA6" s="374"/>
-      <c r="AB6" s="374"/>
-      <c r="AC6" s="374"/>
-      <c r="AD6" s="374"/>
+      <c r="Y6" s="388"/>
+      <c r="Z6" s="388"/>
+      <c r="AA6" s="388"/>
+      <c r="AB6" s="388"/>
+      <c r="AC6" s="388"/>
+      <c r="AD6" s="388"/>
       <c r="AE6" s="74"/>
-      <c r="AF6" s="371" t="s">
+      <c r="AF6" s="385" t="s">
         <v>35</v>
       </c>
       <c r="AG6" s="24"/>
@@ -10032,7 +10028,7 @@
         <v>59</v>
       </c>
       <c r="AE7" s="73"/>
-      <c r="AF7" s="372"/>
+      <c r="AF7" s="386"/>
       <c r="AG7" s="49"/>
     </row>
     <row r="8" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -10044,7 +10040,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="92"/>
-      <c r="E8" s="384" t="str">
+      <c r="E8" s="378" t="str">
         <f>Dashboard!E14</f>
         <v>Räume</v>
       </c>
@@ -10144,11 +10140,11 @@
     <row r="9" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="85"/>
       <c r="B9" s="85"/>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="344" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="92"/>
-      <c r="E9" s="385"/>
+      <c r="E9" s="379"/>
       <c r="F9" s="165" t="str">
         <f>Dashboard!F15</f>
         <v>Projektlab</v>
@@ -10245,9 +10241,9 @@
     <row r="10" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="85"/>
       <c r="B10" s="85"/>
-      <c r="C10" s="344"/>
+      <c r="C10" s="345"/>
       <c r="D10" s="92"/>
-      <c r="E10" s="385"/>
+      <c r="E10" s="379"/>
       <c r="F10" s="165" t="str">
         <f>Dashboard!F16</f>
         <v>Visualisierungssaal</v>
@@ -10344,11 +10340,11 @@
     <row r="11" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="85"/>
       <c r="B11" s="85"/>
-      <c r="C11" s="343" t="s">
+      <c r="C11" s="344" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="92"/>
-      <c r="E11" s="385"/>
+      <c r="E11" s="379"/>
       <c r="F11" s="165" t="str">
         <f>Dashboard!F17</f>
         <v>Gaming Zone</v>
@@ -10445,9 +10441,9 @@
     <row r="12" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="85"/>
       <c r="B12" s="86"/>
-      <c r="C12" s="345"/>
+      <c r="C12" s="346"/>
       <c r="D12" s="92"/>
-      <c r="E12" s="385"/>
+      <c r="E12" s="379"/>
       <c r="F12" s="165" t="str">
         <f>Dashboard!F18</f>
         <v>Gruppenlernraum</v>
@@ -10546,7 +10542,7 @@
       <c r="B13" s="92"/>
       <c r="C13" s="92"/>
       <c r="D13" s="92"/>
-      <c r="E13" s="385"/>
+      <c r="E13" s="379"/>
       <c r="F13" s="165" t="str">
         <f>Dashboard!F19</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -10639,7 +10635,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="92"/>
-      <c r="E14" s="385"/>
+      <c r="E14" s="379"/>
       <c r="F14" s="165" t="str">
         <f>Dashboard!F20</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -10726,11 +10722,11 @@
     <row r="15" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="85"/>
       <c r="B15" s="85"/>
-      <c r="C15" s="343" t="s">
+      <c r="C15" s="344" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="92"/>
-      <c r="E15" s="385"/>
+      <c r="E15" s="379"/>
       <c r="F15" s="165" t="str">
         <f>Dashboard!F21</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -10817,9 +10813,9 @@
     <row r="16" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="85"/>
       <c r="B16" s="85"/>
-      <c r="C16" s="344"/>
+      <c r="C16" s="345"/>
       <c r="D16" s="92"/>
-      <c r="E16" s="385"/>
+      <c r="E16" s="379"/>
       <c r="F16" s="165" t="str">
         <f>Dashboard!F22</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -10906,11 +10902,11 @@
     <row r="17" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="85"/>
       <c r="B17" s="85"/>
-      <c r="C17" s="389" t="s">
+      <c r="C17" s="383" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="92"/>
-      <c r="E17" s="386"/>
+      <c r="E17" s="380"/>
       <c r="F17" s="166" t="str">
         <f>Dashboard!F23</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -10997,9 +10993,9 @@
     <row r="18" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="85"/>
       <c r="B18" s="86"/>
-      <c r="C18" s="390"/>
+      <c r="C18" s="384"/>
       <c r="D18" s="92"/>
-      <c r="E18" s="387" t="str">
+      <c r="E18" s="381" t="str">
         <f>Dashboard!E24</f>
         <v>Infrastruktur</v>
       </c>
@@ -11091,7 +11087,7 @@
       <c r="B19" s="92"/>
       <c r="C19" s="92"/>
       <c r="D19" s="92"/>
-      <c r="E19" s="385"/>
+      <c r="E19" s="379"/>
       <c r="F19" s="165" t="str">
         <f>Dashboard!F25</f>
         <v>IT Infrastruktur</v>
@@ -11194,7 +11190,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="92"/>
-      <c r="E20" s="385"/>
+      <c r="E20" s="379"/>
       <c r="F20" s="165" t="str">
         <f>Dashboard!F26</f>
         <v>AV Infrastruktur</v>
@@ -11291,11 +11287,11 @@
     <row r="21" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="85"/>
       <c r="B21" s="85"/>
-      <c r="C21" s="343" t="s">
+      <c r="C21" s="344" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="92"/>
-      <c r="E21" s="385"/>
+      <c r="E21" s="379"/>
       <c r="F21" s="165" t="str">
         <f>Dashboard!F27</f>
         <v>&lt; Infrastruktur &gt;</v>
@@ -11382,9 +11378,9 @@
     <row r="22" spans="1:33" s="81" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="85"/>
       <c r="B22" s="85"/>
-      <c r="C22" s="344"/>
+      <c r="C22" s="345"/>
       <c r="D22" s="92"/>
-      <c r="E22" s="388"/>
+      <c r="E22" s="382"/>
       <c r="F22" s="165" t="str">
         <f>Dashboard!F28</f>
         <v>Andere nicht-raumspezifische Elemente</v>
@@ -11471,7 +11467,7 @@
     <row r="23" spans="1:33" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="85"/>
-      <c r="C23" s="340" t="s">
+      <c r="C23" s="341" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="36"/>
@@ -11508,7 +11504,7 @@
     <row r="24" spans="1:33" s="59" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
       <c r="B24" s="86"/>
-      <c r="C24" s="342"/>
+      <c r="C24" s="343"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="26"/>
@@ -11645,7 +11641,7 @@
       <c r="B26" s="84">
         <v>4</v>
       </c>
-      <c r="C26" s="382" t="s">
+      <c r="C26" s="376" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="36"/>
@@ -11653,32 +11649,32 @@
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
-      <c r="I26" s="376" t="s">
+      <c r="I26" s="389" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="377"/>
-      <c r="K26" s="377"/>
-      <c r="L26" s="377"/>
-      <c r="M26" s="378"/>
+      <c r="J26" s="390"/>
+      <c r="K26" s="390"/>
+      <c r="L26" s="390"/>
+      <c r="M26" s="391"/>
       <c r="N26" s="36"/>
       <c r="O26" s="36"/>
-      <c r="P26" s="376" t="s">
+      <c r="P26" s="389" t="s">
         <v>52</v>
       </c>
-      <c r="Q26" s="377"/>
-      <c r="R26" s="377"/>
-      <c r="S26" s="377"/>
-      <c r="T26" s="378"/>
+      <c r="Q26" s="390"/>
+      <c r="R26" s="390"/>
+      <c r="S26" s="390"/>
+      <c r="T26" s="391"/>
       <c r="U26" s="36"/>
       <c r="V26" s="36"/>
       <c r="W26" s="36"/>
-      <c r="X26" s="376" t="s">
+      <c r="X26" s="389" t="s">
         <v>57</v>
       </c>
-      <c r="Y26" s="377"/>
-      <c r="Z26" s="377"/>
-      <c r="AA26" s="377"/>
-      <c r="AB26" s="378"/>
+      <c r="Y26" s="390"/>
+      <c r="Z26" s="390"/>
+      <c r="AA26" s="390"/>
+      <c r="AB26" s="391"/>
       <c r="AC26" s="36"/>
       <c r="AD26" s="36"/>
       <c r="AE26" s="36"/>
@@ -11688,7 +11684,7 @@
     <row r="27" spans="1:33" s="57" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="88"/>
-      <c r="C27" s="383"/>
+      <c r="C27" s="377"/>
       <c r="D27" s="73"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
@@ -11914,12 +11910,12 @@
       <c r="G38" s="55"/>
       <c r="H38" s="55"/>
       <c r="I38" s="55"/>
-      <c r="J38" s="375"/>
-      <c r="K38" s="375"/>
-      <c r="L38" s="375"/>
-      <c r="M38" s="375"/>
-      <c r="N38" s="375"/>
-      <c r="O38" s="375"/>
+      <c r="J38" s="374"/>
+      <c r="K38" s="374"/>
+      <c r="L38" s="374"/>
+      <c r="M38" s="374"/>
+      <c r="N38" s="374"/>
+      <c r="O38" s="374"/>
       <c r="P38" s="55"/>
       <c r="Q38" s="55"/>
       <c r="R38" s="55"/>
@@ -11944,13 +11940,13 @@
       <c r="G40" s="55"/>
       <c r="H40" s="55"/>
       <c r="I40" s="55"/>
-      <c r="J40" s="375"/>
-      <c r="K40" s="375"/>
-      <c r="L40" s="375"/>
-      <c r="M40" s="375"/>
-      <c r="N40" s="375"/>
-      <c r="O40" s="375"/>
-      <c r="P40" s="375"/>
+      <c r="J40" s="374"/>
+      <c r="K40" s="374"/>
+      <c r="L40" s="374"/>
+      <c r="M40" s="374"/>
+      <c r="N40" s="374"/>
+      <c r="O40" s="374"/>
+      <c r="P40" s="374"/>
       <c r="Q40" s="55"/>
       <c r="R40" s="55"/>
     </row>
@@ -11974,14 +11970,14 @@
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
       <c r="I42" s="55"/>
-      <c r="J42" s="375"/>
-      <c r="K42" s="375"/>
-      <c r="L42" s="375"/>
-      <c r="M42" s="375"/>
-      <c r="N42" s="375"/>
-      <c r="O42" s="375"/>
-      <c r="P42" s="375"/>
-      <c r="Q42" s="375"/>
+      <c r="J42" s="374"/>
+      <c r="K42" s="374"/>
+      <c r="L42" s="374"/>
+      <c r="M42" s="374"/>
+      <c r="N42" s="374"/>
+      <c r="O42" s="374"/>
+      <c r="P42" s="374"/>
+      <c r="Q42" s="374"/>
       <c r="R42" s="55"/>
     </row>
     <row r="43" spans="6:32" x14ac:dyDescent="0.2">
@@ -12017,6 +12013,13 @@
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="22">
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="X26:AB26"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="X6:AD6"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="C23:C24"/>
@@ -12032,13 +12035,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="P6:V6"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="X26:AB26"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="X6:AD6"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:G22">
     <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
@@ -12172,13 +12168,13 @@
     </row>
     <row r="2" spans="1:36" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
-      <c r="B2" s="394" t="s">
+      <c r="B2" s="400" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="395"/>
-      <c r="D2" s="395"/>
-      <c r="E2" s="395"/>
-      <c r="F2" s="395"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
       <c r="G2" s="119"/>
       <c r="H2" s="70"/>
       <c r="I2" s="70"/>
@@ -12250,14 +12246,14 @@
     </row>
     <row r="4" spans="1:36" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
-      <c r="B4" s="365" t="s">
+      <c r="B4" s="366" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="366"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
-      <c r="F4" s="366"/>
-      <c r="G4" s="366"/>
+      <c r="C4" s="367"/>
+      <c r="D4" s="367"/>
+      <c r="E4" s="367"/>
+      <c r="F4" s="367"/>
+      <c r="G4" s="367"/>
       <c r="H4" s="97"/>
       <c r="I4" s="97"/>
       <c r="J4" s="36"/>
@@ -12328,10 +12324,10 @@
     </row>
     <row r="6" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
-      <c r="B6" s="364" t="s">
+      <c r="B6" s="365" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="339"/>
+      <c r="C6" s="340"/>
       <c r="D6" s="112"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
@@ -12417,37 +12413,37 @@
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
-      <c r="I8" s="398" t="s">
+      <c r="I8" s="395" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="399"/>
-      <c r="K8" s="399"/>
-      <c r="L8" s="399"/>
-      <c r="M8" s="400"/>
+      <c r="J8" s="393"/>
+      <c r="K8" s="393"/>
+      <c r="L8" s="393"/>
+      <c r="M8" s="394"/>
       <c r="N8" s="127"/>
-      <c r="O8" s="398" t="s">
+      <c r="O8" s="395" t="s">
         <v>85</v>
       </c>
-      <c r="P8" s="399"/>
-      <c r="Q8" s="399"/>
-      <c r="R8" s="399"/>
-      <c r="S8" s="400"/>
+      <c r="P8" s="393"/>
+      <c r="Q8" s="393"/>
+      <c r="R8" s="393"/>
+      <c r="S8" s="394"/>
       <c r="T8" s="127"/>
-      <c r="U8" s="398" t="s">
+      <c r="U8" s="395" t="s">
         <v>86</v>
       </c>
-      <c r="V8" s="399"/>
-      <c r="W8" s="399"/>
-      <c r="X8" s="399"/>
-      <c r="Y8" s="400"/>
+      <c r="V8" s="393"/>
+      <c r="W8" s="393"/>
+      <c r="X8" s="393"/>
+      <c r="Y8" s="394"/>
       <c r="Z8" s="36"/>
-      <c r="AA8" s="398" t="s">
+      <c r="AA8" s="395" t="s">
         <v>87</v>
       </c>
-      <c r="AB8" s="399"/>
-      <c r="AC8" s="399"/>
-      <c r="AD8" s="399"/>
-      <c r="AE8" s="400"/>
+      <c r="AB8" s="393"/>
+      <c r="AC8" s="393"/>
+      <c r="AD8" s="393"/>
+      <c r="AE8" s="394"/>
       <c r="AF8" s="36"/>
       <c r="AG8" s="36"/>
       <c r="AH8" s="36"/>
@@ -12457,15 +12453,15 @@
     <row r="9" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="343" t="s">
+      <c r="C9" s="344" t="s">
         <v>131</v>
       </c>
       <c r="D9" s="112"/>
       <c r="E9" s="36"/>
-      <c r="F9" s="396" t="s">
+      <c r="F9" s="402" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="397"/>
+      <c r="G9" s="403"/>
       <c r="H9" s="36"/>
       <c r="I9" s="132">
         <v>1</v>
@@ -12531,11 +12527,11 @@
     <row r="10" spans="1:36" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="130"/>
-      <c r="C10" s="344"/>
+      <c r="C10" s="345"/>
       <c r="D10" s="112"/>
       <c r="E10" s="36"/>
-      <c r="F10" s="397"/>
-      <c r="G10" s="397"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="403"/>
       <c r="H10" s="36"/>
       <c r="I10" s="295" t="s">
         <v>79</v>
@@ -12599,7 +12595,7 @@
     <row r="11" spans="1:36" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="130"/>
-      <c r="C11" s="344"/>
+      <c r="C11" s="345"/>
       <c r="D11" s="112"/>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
@@ -12678,7 +12674,7 @@
     <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
       <c r="B12" s="130"/>
-      <c r="C12" s="344"/>
+      <c r="C12" s="345"/>
       <c r="D12" s="112"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
@@ -12757,7 +12753,7 @@
     <row r="13" spans="1:36" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="130"/>
-      <c r="C13" s="344"/>
+      <c r="C13" s="345"/>
       <c r="D13" s="112"/>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
@@ -12819,7 +12815,7 @@
     <row r="14" spans="1:36" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="130"/>
-      <c r="C14" s="344"/>
+      <c r="C14" s="345"/>
       <c r="D14" s="112"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
@@ -12924,7 +12920,7 @@
     <row r="15" spans="1:36" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="131"/>
-      <c r="C15" s="345"/>
+      <c r="C15" s="346"/>
       <c r="D15" s="112"/>
       <c r="E15" s="112"/>
       <c r="F15" s="113"/>
@@ -13010,40 +13006,40 @@
       <c r="F17" s="127"/>
       <c r="G17" s="127"/>
       <c r="H17" s="178"/>
-      <c r="I17" s="398" t="s">
+      <c r="I17" s="395" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="399"/>
-      <c r="K17" s="399"/>
-      <c r="L17" s="399"/>
-      <c r="M17" s="400"/>
+      <c r="J17" s="393"/>
+      <c r="K17" s="393"/>
+      <c r="L17" s="393"/>
+      <c r="M17" s="394"/>
       <c r="N17" s="127"/>
-      <c r="O17" s="401" t="str">
+      <c r="O17" s="392" t="str">
         <f>I17</f>
         <v>PROZENTUALER ANTEIL DER AUFGEWENDETEN ZEIT (PRO RAUM, PRO STUFE)</v>
       </c>
-      <c r="P17" s="399"/>
-      <c r="Q17" s="399"/>
-      <c r="R17" s="399"/>
-      <c r="S17" s="400"/>
+      <c r="P17" s="393"/>
+      <c r="Q17" s="393"/>
+      <c r="R17" s="393"/>
+      <c r="S17" s="394"/>
       <c r="T17" s="36"/>
-      <c r="U17" s="401" t="str">
+      <c r="U17" s="392" t="str">
         <f>I17</f>
         <v>PROZENTUALER ANTEIL DER AUFGEWENDETEN ZEIT (PRO RAUM, PRO STUFE)</v>
       </c>
-      <c r="V17" s="399"/>
-      <c r="W17" s="399"/>
-      <c r="X17" s="399"/>
-      <c r="Y17" s="400"/>
+      <c r="V17" s="393"/>
+      <c r="W17" s="393"/>
+      <c r="X17" s="393"/>
+      <c r="Y17" s="394"/>
       <c r="Z17" s="36"/>
-      <c r="AA17" s="401" t="str">
+      <c r="AA17" s="392" t="str">
         <f>I17</f>
         <v>PROZENTUALER ANTEIL DER AUFGEWENDETEN ZEIT (PRO RAUM, PRO STUFE)</v>
       </c>
-      <c r="AB17" s="399"/>
-      <c r="AC17" s="399"/>
-      <c r="AD17" s="399"/>
-      <c r="AE17" s="400"/>
+      <c r="AB17" s="393"/>
+      <c r="AC17" s="393"/>
+      <c r="AD17" s="393"/>
+      <c r="AE17" s="394"/>
       <c r="AF17" s="36"/>
       <c r="AG17" s="36"/>
       <c r="AH17" s="36"/>
@@ -13053,7 +13049,7 @@
     <row r="18" spans="1:36" s="110" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
-      <c r="C18" s="343" t="s">
+      <c r="C18" s="344" t="s">
         <v>99</v>
       </c>
       <c r="D18" s="36"/>
@@ -13061,37 +13057,37 @@
       <c r="F18" s="127"/>
       <c r="G18" s="127"/>
       <c r="H18" s="178"/>
-      <c r="I18" s="402" t="s">
+      <c r="I18" s="396" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="403"/>
-      <c r="K18" s="403"/>
-      <c r="L18" s="403"/>
-      <c r="M18" s="404"/>
+      <c r="J18" s="397"/>
+      <c r="K18" s="397"/>
+      <c r="L18" s="397"/>
+      <c r="M18" s="398"/>
       <c r="N18" s="127"/>
-      <c r="O18" s="402" t="s">
+      <c r="O18" s="396" t="s">
         <v>85</v>
       </c>
-      <c r="P18" s="403"/>
-      <c r="Q18" s="403"/>
-      <c r="R18" s="403"/>
-      <c r="S18" s="404"/>
+      <c r="P18" s="397"/>
+      <c r="Q18" s="397"/>
+      <c r="R18" s="397"/>
+      <c r="S18" s="398"/>
       <c r="T18" s="127"/>
-      <c r="U18" s="402" t="s">
+      <c r="U18" s="396" t="s">
         <v>86</v>
       </c>
-      <c r="V18" s="403"/>
-      <c r="W18" s="403"/>
-      <c r="X18" s="403"/>
-      <c r="Y18" s="404"/>
+      <c r="V18" s="397"/>
+      <c r="W18" s="397"/>
+      <c r="X18" s="397"/>
+      <c r="Y18" s="398"/>
       <c r="Z18" s="36"/>
-      <c r="AA18" s="402" t="s">
+      <c r="AA18" s="396" t="s">
         <v>87</v>
       </c>
-      <c r="AB18" s="403"/>
-      <c r="AC18" s="403"/>
-      <c r="AD18" s="403"/>
-      <c r="AE18" s="404"/>
+      <c r="AB18" s="397"/>
+      <c r="AC18" s="397"/>
+      <c r="AD18" s="397"/>
+      <c r="AE18" s="398"/>
       <c r="AF18" s="120"/>
       <c r="AG18" s="120"/>
       <c r="AH18" s="120"/>
@@ -13101,7 +13097,7 @@
     <row r="19" spans="1:36" s="110" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="344"/>
+      <c r="C19" s="345"/>
       <c r="D19" s="112"/>
       <c r="E19" s="112"/>
       <c r="F19" s="36"/>
@@ -13193,9 +13189,9 @@
     <row r="20" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
-      <c r="C20" s="344"/>
+      <c r="C20" s="345"/>
       <c r="D20" s="112"/>
-      <c r="E20" s="384" t="str">
+      <c r="E20" s="378" t="str">
         <f>Dashboard!E14</f>
         <v>Räume</v>
       </c>
@@ -13274,9 +13270,9 @@
     <row r="21" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="344"/>
+      <c r="C21" s="345"/>
       <c r="D21" s="112"/>
-      <c r="E21" s="385"/>
+      <c r="E21" s="379"/>
       <c r="F21" s="167" t="str">
         <f>Dashboard!F15</f>
         <v>Projektlab</v>
@@ -13352,9 +13348,9 @@
     <row r="22" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
-      <c r="C22" s="344"/>
+      <c r="C22" s="345"/>
       <c r="D22" s="112"/>
-      <c r="E22" s="385"/>
+      <c r="E22" s="379"/>
       <c r="F22" s="167" t="str">
         <f>Dashboard!F16</f>
         <v>Visualisierungssaal</v>
@@ -13430,9 +13426,9 @@
     <row r="23" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="179"/>
-      <c r="C23" s="344"/>
+      <c r="C23" s="345"/>
       <c r="D23" s="112"/>
-      <c r="E23" s="385"/>
+      <c r="E23" s="379"/>
       <c r="F23" s="167" t="str">
         <f>Dashboard!F17</f>
         <v>Gaming Zone</v>
@@ -13508,9 +13504,9 @@
     <row r="24" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
-      <c r="C24" s="344"/>
+      <c r="C24" s="345"/>
       <c r="D24" s="112"/>
-      <c r="E24" s="385"/>
+      <c r="E24" s="379"/>
       <c r="F24" s="167" t="str">
         <f>Dashboard!F18</f>
         <v>Gruppenlernraum</v>
@@ -13586,9 +13582,9 @@
     <row r="25" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="344"/>
+      <c r="C25" s="345"/>
       <c r="D25" s="112"/>
-      <c r="E25" s="385"/>
+      <c r="E25" s="379"/>
       <c r="F25" s="167" t="str">
         <f>Dashboard!F19</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -13642,9 +13638,9 @@
     <row r="26" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
-      <c r="C26" s="344"/>
+      <c r="C26" s="345"/>
       <c r="D26" s="112"/>
-      <c r="E26" s="385"/>
+      <c r="E26" s="379"/>
       <c r="F26" s="167" t="str">
         <f>Dashboard!F20</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -13698,9 +13694,9 @@
     <row r="27" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
-      <c r="C27" s="344"/>
+      <c r="C27" s="345"/>
       <c r="D27" s="112"/>
-      <c r="E27" s="385"/>
+      <c r="E27" s="379"/>
       <c r="F27" s="167" t="str">
         <f>Dashboard!F21</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -13754,9 +13750,9 @@
     <row r="28" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
-      <c r="C28" s="344"/>
+      <c r="C28" s="345"/>
       <c r="D28" s="112"/>
-      <c r="E28" s="385"/>
+      <c r="E28" s="379"/>
       <c r="F28" s="167" t="str">
         <f>Dashboard!F22</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -13810,9 +13806,9 @@
     <row r="29" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
-      <c r="C29" s="344"/>
+      <c r="C29" s="345"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="386"/>
+      <c r="E29" s="380"/>
       <c r="F29" s="168" t="str">
         <f>Dashboard!F23</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -13866,9 +13862,9 @@
     <row r="30" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
-      <c r="C30" s="344"/>
+      <c r="C30" s="345"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="405" t="str">
+      <c r="E30" s="399" t="str">
         <f>Dashboard!E24</f>
         <v>Infrastruktur</v>
       </c>
@@ -13939,9 +13935,9 @@
     <row r="31" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="37"/>
-      <c r="C31" s="344"/>
+      <c r="C31" s="345"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="385"/>
+      <c r="E31" s="379"/>
       <c r="F31" s="170" t="str">
         <f>Dashboard!F25</f>
         <v>IT Infrastruktur</v>
@@ -14009,9 +14005,9 @@
     <row r="32" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
-      <c r="C32" s="344"/>
+      <c r="C32" s="345"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="385"/>
+      <c r="E32" s="379"/>
       <c r="F32" s="170" t="str">
         <f>Dashboard!F26</f>
         <v>AV Infrastruktur</v>
@@ -14079,9 +14075,9 @@
     <row r="33" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
-      <c r="C33" s="344"/>
+      <c r="C33" s="345"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="385"/>
+      <c r="E33" s="379"/>
       <c r="F33" s="170" t="str">
         <f>Dashboard!F27</f>
         <v>&lt; Infrastruktur &gt;</v>
@@ -14135,9 +14131,9 @@
     <row r="34" spans="1:36" s="110" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
       <c r="B34" s="80"/>
-      <c r="C34" s="345"/>
+      <c r="C34" s="346"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="385"/>
+      <c r="E34" s="379"/>
       <c r="F34" s="171" t="str">
         <f>Dashboard!F28</f>
         <v>Andere nicht-raumspezifische Elemente</v>
@@ -14341,20 +14337,20 @@
       <c r="F37" s="127"/>
       <c r="G37" s="127"/>
       <c r="H37" s="127"/>
-      <c r="I37" s="398" t="s">
+      <c r="I37" s="395" t="s">
         <v>101</v>
       </c>
-      <c r="J37" s="399"/>
-      <c r="K37" s="399"/>
-      <c r="L37" s="399"/>
-      <c r="M37" s="399"/>
-      <c r="N37" s="399"/>
-      <c r="O37" s="399"/>
-      <c r="P37" s="399"/>
-      <c r="Q37" s="399"/>
-      <c r="R37" s="399"/>
-      <c r="S37" s="399"/>
-      <c r="T37" s="400"/>
+      <c r="J37" s="393"/>
+      <c r="K37" s="393"/>
+      <c r="L37" s="393"/>
+      <c r="M37" s="393"/>
+      <c r="N37" s="393"/>
+      <c r="O37" s="393"/>
+      <c r="P37" s="393"/>
+      <c r="Q37" s="393"/>
+      <c r="R37" s="393"/>
+      <c r="S37" s="393"/>
+      <c r="T37" s="394"/>
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
       <c r="W37" s="120"/>
@@ -14375,32 +14371,32 @@
     <row r="38" spans="1:36" s="110" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
-      <c r="C38" s="343" t="s">
+      <c r="C38" s="344" t="s">
         <v>102</v>
       </c>
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
-      <c r="G38" s="369" t="s">
+      <c r="G38" s="370" t="s">
         <v>17</v>
       </c>
       <c r="H38" s="36"/>
-      <c r="I38" s="391" t="s">
+      <c r="I38" s="404" t="s">
         <v>83</v>
       </c>
-      <c r="J38" s="392"/>
-      <c r="K38" s="392"/>
-      <c r="L38" s="392"/>
-      <c r="M38" s="393"/>
+      <c r="J38" s="405"/>
+      <c r="K38" s="405"/>
+      <c r="L38" s="405"/>
+      <c r="M38" s="406"/>
       <c r="N38" s="36"/>
-      <c r="O38" s="391" t="s">
+      <c r="O38" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="P38" s="392"/>
-      <c r="Q38" s="392"/>
-      <c r="R38" s="392"/>
-      <c r="S38" s="392"/>
-      <c r="T38" s="393"/>
+      <c r="P38" s="405"/>
+      <c r="Q38" s="405"/>
+      <c r="R38" s="405"/>
+      <c r="S38" s="405"/>
+      <c r="T38" s="406"/>
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
       <c r="W38" s="120"/>
@@ -14421,11 +14417,11 @@
     <row r="39" spans="1:36" s="57" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="72"/>
       <c r="B39" s="72"/>
-      <c r="C39" s="344"/>
+      <c r="C39" s="345"/>
       <c r="D39" s="73"/>
       <c r="E39" s="73"/>
       <c r="F39" s="23"/>
-      <c r="G39" s="370"/>
+      <c r="G39" s="371"/>
       <c r="H39" s="73"/>
       <c r="I39" s="313" t="s">
         <v>103</v>
@@ -14481,9 +14477,9 @@
     <row r="40" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
       <c r="B40" s="64"/>
-      <c r="C40" s="344"/>
+      <c r="C40" s="345"/>
       <c r="D40" s="74"/>
-      <c r="E40" s="384" t="str">
+      <c r="E40" s="378" t="str">
         <f>Dashboard!E14</f>
         <v>Räume</v>
       </c>
@@ -14561,9 +14557,9 @@
     <row r="41" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="64"/>
       <c r="B41" s="64"/>
-      <c r="C41" s="344"/>
+      <c r="C41" s="345"/>
       <c r="D41" s="74"/>
-      <c r="E41" s="385"/>
+      <c r="E41" s="379"/>
       <c r="F41" s="162" t="str">
         <f>Dashboard!F15</f>
         <v>Projektlab</v>
@@ -14638,9 +14634,9 @@
     <row r="42" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="64"/>
       <c r="B42" s="64"/>
-      <c r="C42" s="344"/>
+      <c r="C42" s="345"/>
       <c r="D42" s="74"/>
-      <c r="E42" s="385"/>
+      <c r="E42" s="379"/>
       <c r="F42" s="162" t="str">
         <f>Dashboard!F16</f>
         <v>Visualisierungssaal</v>
@@ -14715,9 +14711,9 @@
     <row r="43" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="64"/>
       <c r="B43" s="64"/>
-      <c r="C43" s="344"/>
+      <c r="C43" s="345"/>
       <c r="D43" s="74"/>
-      <c r="E43" s="385"/>
+      <c r="E43" s="379"/>
       <c r="F43" s="162" t="str">
         <f>Dashboard!F17</f>
         <v>Gaming Zone</v>
@@ -14792,9 +14788,9 @@
     <row r="44" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="64"/>
       <c r="B44" s="64"/>
-      <c r="C44" s="344"/>
+      <c r="C44" s="345"/>
       <c r="D44" s="74"/>
-      <c r="E44" s="385"/>
+      <c r="E44" s="379"/>
       <c r="F44" s="162" t="str">
         <f>Dashboard!F18</f>
         <v>Gruppenlernraum</v>
@@ -14869,9 +14865,9 @@
     <row r="45" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="64"/>
       <c r="B45" s="64"/>
-      <c r="C45" s="344"/>
+      <c r="C45" s="345"/>
       <c r="D45" s="74"/>
-      <c r="E45" s="385"/>
+      <c r="E45" s="379"/>
       <c r="F45" s="162" t="str">
         <f>Dashboard!F19</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -14946,9 +14942,9 @@
     <row r="46" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="64"/>
       <c r="B46" s="64"/>
-      <c r="C46" s="344"/>
+      <c r="C46" s="345"/>
       <c r="D46" s="74"/>
-      <c r="E46" s="385"/>
+      <c r="E46" s="379"/>
       <c r="F46" s="162" t="str">
         <f>Dashboard!F20</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -15023,9 +15019,9 @@
     <row r="47" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="64"/>
       <c r="B47" s="64"/>
-      <c r="C47" s="344"/>
+      <c r="C47" s="345"/>
       <c r="D47" s="74"/>
-      <c r="E47" s="385"/>
+      <c r="E47" s="379"/>
       <c r="F47" s="162" t="str">
         <f>Dashboard!F21</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -15100,9 +15096,9 @@
     <row r="48" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="64"/>
       <c r="B48" s="64"/>
-      <c r="C48" s="344"/>
+      <c r="C48" s="345"/>
       <c r="D48" s="74"/>
-      <c r="E48" s="385"/>
+      <c r="E48" s="379"/>
       <c r="F48" s="162" t="str">
         <f>Dashboard!F22</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -15177,9 +15173,9 @@
     <row r="49" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="64"/>
       <c r="B49" s="64"/>
-      <c r="C49" s="344"/>
+      <c r="C49" s="345"/>
       <c r="D49" s="74"/>
-      <c r="E49" s="386"/>
+      <c r="E49" s="380"/>
       <c r="F49" s="163" t="str">
         <f>Dashboard!F23</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -15254,9 +15250,9 @@
     <row r="50" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A50" s="64"/>
       <c r="B50" s="64"/>
-      <c r="C50" s="344"/>
+      <c r="C50" s="345"/>
       <c r="D50" s="74"/>
-      <c r="E50" s="387" t="str">
+      <c r="E50" s="381" t="str">
         <f>Dashboard!E24</f>
         <v>Infrastruktur</v>
       </c>
@@ -15334,9 +15330,9 @@
     <row r="51" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="64"/>
       <c r="B51" s="64"/>
-      <c r="C51" s="344"/>
+      <c r="C51" s="345"/>
       <c r="D51" s="74"/>
-      <c r="E51" s="385"/>
+      <c r="E51" s="379"/>
       <c r="F51" s="162" t="str">
         <f>Dashboard!F25</f>
         <v>IT Infrastruktur</v>
@@ -15411,9 +15407,9 @@
     <row r="52" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="64"/>
       <c r="B52" s="64"/>
-      <c r="C52" s="344"/>
+      <c r="C52" s="345"/>
       <c r="D52" s="74"/>
-      <c r="E52" s="385"/>
+      <c r="E52" s="379"/>
       <c r="F52" s="162" t="str">
         <f>Dashboard!F26</f>
         <v>AV Infrastruktur</v>
@@ -15488,9 +15484,9 @@
     <row r="53" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="64"/>
       <c r="B53" s="64"/>
-      <c r="C53" s="344"/>
+      <c r="C53" s="345"/>
       <c r="D53" s="74"/>
-      <c r="E53" s="385"/>
+      <c r="E53" s="379"/>
       <c r="F53" s="162" t="str">
         <f>Dashboard!F27</f>
         <v>&lt; Infrastruktur &gt;</v>
@@ -15565,9 +15561,9 @@
     <row r="54" spans="1:36" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="64"/>
       <c r="B54" s="65"/>
-      <c r="C54" s="345"/>
+      <c r="C54" s="346"/>
       <c r="D54" s="74"/>
-      <c r="E54" s="388"/>
+      <c r="E54" s="382"/>
       <c r="F54" s="162" t="str">
         <f>Dashboard!F28</f>
         <v>Andere nicht-raumspezifische Elemente</v>
@@ -15869,6 +15865,20 @@
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="27">
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="O38:T38"/>
+    <mergeCell ref="E40:E49"/>
+    <mergeCell ref="C38:C54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="U8:Y8"/>
     <mergeCell ref="AA17:AE17"/>
     <mergeCell ref="C18:C34"/>
     <mergeCell ref="I37:T37"/>
@@ -15882,20 +15892,6 @@
     <mergeCell ref="E30:E34"/>
     <mergeCell ref="O17:S17"/>
     <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="O38:T38"/>
-    <mergeCell ref="E40:E49"/>
-    <mergeCell ref="C38:C54"/>
-    <mergeCell ref="E50:E54"/>
   </mergeCells>
   <conditionalFormatting sqref="I20:L34 O20:R34 U20:X34 AA20:AD34">
     <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
@@ -16003,16 +15999,16 @@
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="335" t="s">
+      <c r="B2" s="336" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -16059,13 +16055,13 @@
     </row>
     <row r="4" spans="1:25" s="54" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="356" t="s">
+      <c r="B4" s="357" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="337"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
+      <c r="C4" s="338"/>
+      <c r="D4" s="338"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
       <c r="G4" s="174"/>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -16073,14 +16069,14 @@
       <c r="K4" s="51"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="337"/>
-      <c r="O4" s="337"/>
-      <c r="P4" s="337"/>
-      <c r="Q4" s="337"/>
-      <c r="R4" s="337"/>
-      <c r="S4" s="337"/>
-      <c r="T4" s="337"/>
-      <c r="U4" s="337"/>
+      <c r="N4" s="338"/>
+      <c r="O4" s="338"/>
+      <c r="P4" s="338"/>
+      <c r="Q4" s="338"/>
+      <c r="R4" s="338"/>
+      <c r="S4" s="338"/>
+      <c r="T4" s="338"/>
+      <c r="U4" s="338"/>
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
@@ -16088,13 +16084,13 @@
     </row>
     <row r="5" spans="1:25" s="54" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
-      <c r="B5" s="356" t="s">
+      <c r="B5" s="357" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="337"/>
-      <c r="D5" s="337"/>
-      <c r="E5" s="337"/>
-      <c r="F5" s="337"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
       <c r="G5" s="174"/>
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
@@ -16144,10 +16140,10 @@
     </row>
     <row r="7" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="338" t="s">
+      <c r="B7" s="339" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="339"/>
+      <c r="C7" s="340"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -16208,10 +16204,10 @@
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="354" t="s">
+      <c r="F9" s="355" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="357">
+      <c r="G9" s="358">
         <v>5</v>
       </c>
       <c r="H9" s="37"/>
@@ -16236,13 +16232,13 @@
     <row r="10" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="216"/>
-      <c r="C10" s="343" t="s">
+      <c r="C10" s="344" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="38"/>
-      <c r="F10" s="355"/>
-      <c r="G10" s="358"/>
+      <c r="F10" s="356"/>
+      <c r="G10" s="359"/>
       <c r="H10" s="37"/>
       <c r="I10" s="99"/>
       <c r="J10" s="36"/>
@@ -16265,7 +16261,7 @@
     <row r="11" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="216"/>
-      <c r="C11" s="344"/>
+      <c r="C11" s="345"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -16292,32 +16288,32 @@
     <row r="12" spans="1:25" s="57" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="211"/>
-      <c r="C12" s="345"/>
+      <c r="C12" s="346"/>
       <c r="D12" s="19"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="19"/>
       <c r="H12" s="108"/>
-      <c r="I12" s="359" t="s">
+      <c r="I12" s="360" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="360"/>
-      <c r="K12" s="360"/>
-      <c r="L12" s="361"/>
+      <c r="J12" s="361"/>
+      <c r="K12" s="361"/>
+      <c r="L12" s="362"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="406" t="s">
+      <c r="N12" s="407" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="407"/>
-      <c r="P12" s="407"/>
-      <c r="Q12" s="407"/>
-      <c r="R12" s="407"/>
-      <c r="S12" s="407"/>
-      <c r="T12" s="407"/>
-      <c r="U12" s="407"/>
-      <c r="V12" s="407"/>
-      <c r="W12" s="407"/>
-      <c r="X12" s="407"/>
+      <c r="O12" s="408"/>
+      <c r="P12" s="408"/>
+      <c r="Q12" s="408"/>
+      <c r="R12" s="408"/>
+      <c r="S12" s="408"/>
+      <c r="T12" s="408"/>
+      <c r="U12" s="408"/>
+      <c r="V12" s="408"/>
+      <c r="W12" s="408"/>
+      <c r="X12" s="408"/>
       <c r="Y12" s="49"/>
     </row>
     <row r="13" spans="1:25" s="58" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -16360,9 +16356,9 @@
     <row r="14" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="214"/>
-      <c r="C14" s="408"/>
+      <c r="C14" s="409"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="346" t="s">
+      <c r="E14" s="347" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="158" t="str">
@@ -16403,9 +16399,9 @@
     <row r="15" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="214"/>
-      <c r="C15" s="408"/>
+      <c r="C15" s="409"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="347"/>
+      <c r="E15" s="348"/>
       <c r="F15" s="158" t="str">
         <f>Dashboard!F15</f>
         <v>Projektlab</v>
@@ -16444,9 +16440,9 @@
     <row r="16" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="214"/>
-      <c r="C16" s="408"/>
+      <c r="C16" s="409"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="347"/>
+      <c r="E16" s="348"/>
       <c r="F16" s="158" t="str">
         <f>Dashboard!F16</f>
         <v>Visualisierungssaal</v>
@@ -16485,9 +16481,9 @@
     <row r="17" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="214"/>
-      <c r="C17" s="408"/>
+      <c r="C17" s="409"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="347"/>
+      <c r="E17" s="348"/>
       <c r="F17" s="158" t="str">
         <f>Dashboard!F17</f>
         <v>Gaming Zone</v>
@@ -16526,9 +16522,9 @@
     <row r="18" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="214"/>
-      <c r="C18" s="408"/>
+      <c r="C18" s="409"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="347"/>
+      <c r="E18" s="348"/>
       <c r="F18" s="158" t="str">
         <f>Dashboard!F18</f>
         <v>Gruppenlernraum</v>
@@ -16567,9 +16563,9 @@
     <row r="19" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="214"/>
-      <c r="C19" s="408"/>
+      <c r="C19" s="409"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="347"/>
+      <c r="E19" s="348"/>
       <c r="F19" s="158" t="str">
         <f>Dashboard!F19</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -16600,9 +16596,9 @@
     <row r="20" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="214"/>
-      <c r="C20" s="408"/>
+      <c r="C20" s="409"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="347"/>
+      <c r="E20" s="348"/>
       <c r="F20" s="158" t="str">
         <f>Dashboard!F20</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -16633,9 +16629,9 @@
     <row r="21" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="214"/>
-      <c r="C21" s="408"/>
+      <c r="C21" s="409"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="347"/>
+      <c r="E21" s="348"/>
       <c r="F21" s="158" t="str">
         <f>Dashboard!F21</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -16666,9 +16662,9 @@
     <row r="22" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="214"/>
-      <c r="C22" s="408"/>
+      <c r="C22" s="409"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="347"/>
+      <c r="E22" s="348"/>
       <c r="F22" s="158" t="str">
         <f>Dashboard!F22</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -16701,7 +16697,7 @@
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="348"/>
+      <c r="E23" s="349"/>
       <c r="F23" s="160" t="str">
         <f>Dashboard!F23</f>
         <v>&lt; Raum einfügen &gt;</v>
@@ -16734,7 +16730,7 @@
       <c r="B24" s="212"/>
       <c r="C24" s="215"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="349" t="s">
+      <c r="E24" s="350" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="158" t="str">
@@ -16771,9 +16767,9 @@
     <row r="25" spans="1:25" s="58" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="214"/>
-      <c r="C25" s="409"/>
+      <c r="C25" s="410"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="347"/>
+      <c r="E25" s="348"/>
       <c r="F25" s="158" t="str">
         <f>Dashboard!F25</f>
         <v>IT Infrastruktur</v>
@@ -16810,9 +16806,9 @@
     <row r="26" spans="1:25" s="58" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="214"/>
-      <c r="C26" s="409"/>
+      <c r="C26" s="410"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="347"/>
+      <c r="E26" s="348"/>
       <c r="F26" s="158" t="str">
         <f>Dashboard!F26</f>
         <v>AV Infrastruktur</v>
@@ -16849,9 +16845,9 @@
     <row r="27" spans="1:25" s="58" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="214"/>
-      <c r="C27" s="409"/>
+      <c r="C27" s="410"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="347"/>
+      <c r="E27" s="348"/>
       <c r="F27" s="158" t="str">
         <f>Dashboard!F27</f>
         <v>&lt; Infrastruktur &gt;</v>
@@ -16884,9 +16880,9 @@
     <row r="28" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="214"/>
-      <c r="C28" s="409"/>
+      <c r="C28" s="410"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="350"/>
+      <c r="E28" s="351"/>
       <c r="F28" s="158" t="str">
         <f>Dashboard!F28</f>
         <v>Andere nicht-raumspezifische Elemente</v>
@@ -17087,6 +17083,11 @@
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="14">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="N4:U4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="N12:X12"/>
     <mergeCell ref="C14:C22"/>
@@ -17096,11 +17097,6 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="N4:U4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="I14:I28">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
